--- a/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
+++ b/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vithal\Documents\GitHub\dcfdictionary\gdcdictionary\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46938DD9-21C3-469E-9851-71107254CC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3ABEA0-971A-4833-BFE3-7E678EDA5284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10860" yWindow="630" windowWidth="10815" windowHeight="13785" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="1605" windowWidth="20745" windowHeight="13785" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes_impowr" sheetId="1" r:id="rId1"/>
@@ -14488,9 +14488,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K958"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A458" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A473" sqref="A473:XFD476"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A619" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20671,10 +20671,10 @@
         <v>281</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="D438" s="4" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="E438" s="3" t="s">
         <v>174</v>
@@ -20685,192 +20685,192 @@
         <v>281</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D439" s="4" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="E439" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="440" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>281</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>1112</v>
+        <v>1117</v>
       </c>
       <c r="D440" s="4" t="s">
-        <v>1181</v>
+        <v>1242</v>
       </c>
       <c r="E440" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="441" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>281</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>1113</v>
+        <v>1122</v>
       </c>
       <c r="D441" s="4" t="s">
-        <v>1182</v>
+        <v>1190</v>
       </c>
       <c r="E441" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="442" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>281</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>1114</v>
+        <v>1121</v>
       </c>
       <c r="D442" s="4" t="s">
-        <v>1183</v>
+        <v>1189</v>
       </c>
       <c r="E442" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="443" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>281</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="D443" s="4" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="E443" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="444" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>281</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="D444" s="4" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="E444" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="445" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>281</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="D445" s="4" t="s">
-        <v>1242</v>
+        <v>1188</v>
       </c>
       <c r="E445" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>281</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>1118</v>
+        <v>1126</v>
       </c>
       <c r="D446" s="4" t="s">
-        <v>1186</v>
+        <v>1194</v>
       </c>
       <c r="E446" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>281</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>1119</v>
+        <v>1125</v>
       </c>
       <c r="D447" s="4" t="s">
-        <v>1187</v>
+        <v>1193</v>
       </c>
       <c r="E447" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>281</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>1120</v>
+        <v>1128</v>
       </c>
       <c r="D448" s="4" t="s">
-        <v>1188</v>
+        <v>1196</v>
       </c>
       <c r="E448" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>281</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="D449" s="4" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="E449" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>281</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>1122</v>
+        <v>1127</v>
       </c>
       <c r="D450" s="4" t="s">
-        <v>1190</v>
+        <v>1195</v>
       </c>
       <c r="E450" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="451" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>281</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D451" s="4" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="E451" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>281</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
       <c r="D452" s="4" t="s">
-        <v>1192</v>
+        <v>1183</v>
       </c>
       <c r="E452" s="3" t="s">
         <v>174</v>
@@ -20881,13 +20881,13 @@
         <v>281</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>1125</v>
+        <v>1113</v>
       </c>
       <c r="D453" s="4" t="s">
-        <v>1193</v>
+        <v>1182</v>
       </c>
       <c r="E453" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="454" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -20895,13 +20895,13 @@
         <v>281</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="D454" s="4" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="E454" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="455" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -20909,10 +20909,10 @@
         <v>281</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>1127</v>
+        <v>1112</v>
       </c>
       <c r="D455" s="4" t="s">
-        <v>1195</v>
+        <v>1181</v>
       </c>
       <c r="E455" s="3" t="s">
         <v>174</v>
@@ -20923,10 +20923,10 @@
         <v>281</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>1128</v>
+        <v>1116</v>
       </c>
       <c r="D456" s="4" t="s">
-        <v>1196</v>
+        <v>1185</v>
       </c>
       <c r="E456" s="3" t="s">
         <v>174</v>
@@ -20946,7 +20946,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="458" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>346</v>
       </c>
@@ -20960,7 +20960,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>346</v>
       </c>
@@ -20974,7 +20974,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>346</v>
       </c>
@@ -20988,7 +20988,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>346</v>
       </c>
@@ -21002,7 +21002,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="462" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>346</v>
       </c>
@@ -21016,7 +21016,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>346</v>
       </c>
@@ -21030,7 +21030,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>346</v>
       </c>
@@ -21044,7 +21044,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>346</v>
       </c>
@@ -21058,7 +21058,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="466" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>346</v>
       </c>
@@ -21072,7 +21072,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>346</v>
       </c>
@@ -21086,7 +21086,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>346</v>
       </c>
@@ -21100,7 +21100,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>346</v>
       </c>
@@ -21114,7 +21114,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>346</v>
       </c>
@@ -21128,7 +21128,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>346</v>
       </c>
@@ -21142,7 +21142,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>346</v>
       </c>
@@ -23200,7 +23200,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>298</v>
       </c>
@@ -23214,7 +23214,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>298</v>
       </c>
@@ -23228,7 +23228,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>298</v>
       </c>
@@ -23242,7 +23242,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>298</v>
       </c>
@@ -23256,7 +23256,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>298</v>
       </c>
@@ -23270,7 +23270,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>298</v>
       </c>
@@ -27964,9 +27964,12 @@
   <autoFilter ref="A1:K958" xr:uid="{00000000-0001-0000-0100-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="pb_aim_iam_fim"/>
+        <filter val="pb_pain_catastrophizing"/>
       </filters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A437:K457">
+      <sortCondition ref="B1:B958"/>
+    </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27978,7 +27981,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E2044"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1101" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A1116" sqref="A1116:XFD1130"/>
     </sheetView>
@@ -40332,7 +40335,7 @@
       </c>
       <c r="D1055" s="3"/>
     </row>
-    <row r="1056" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
         <v>346</v>
       </c>
@@ -40346,7 +40349,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="1057" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1057" t="s">
         <v>346</v>
       </c>
@@ -40358,7 +40361,7 @@
       </c>
       <c r="D1057" s="3"/>
     </row>
-    <row r="1058" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1058" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1058" t="s">
         <v>346</v>
       </c>
@@ -40370,7 +40373,7 @@
       </c>
       <c r="D1058" s="3"/>
     </row>
-    <row r="1059" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1059" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1059" t="s">
         <v>346</v>
       </c>
@@ -40382,7 +40385,7 @@
       </c>
       <c r="D1059" s="3"/>
     </row>
-    <row r="1060" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1060" t="s">
         <v>346</v>
       </c>
@@ -40394,7 +40397,7 @@
       </c>
       <c r="D1060" s="3"/>
     </row>
-    <row r="1061" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1061" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1061" t="s">
         <v>346</v>
       </c>
@@ -40408,7 +40411,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="1062" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1062" t="s">
         <v>346</v>
       </c>
@@ -40420,7 +40423,7 @@
       </c>
       <c r="D1062" s="3"/>
     </row>
-    <row r="1063" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1063" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1063" t="s">
         <v>346</v>
       </c>
@@ -40432,7 +40435,7 @@
       </c>
       <c r="D1063" s="3"/>
     </row>
-    <row r="1064" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1064" t="s">
         <v>346</v>
       </c>
@@ -40444,7 +40447,7 @@
       </c>
       <c r="D1064" s="3"/>
     </row>
-    <row r="1065" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1065" t="s">
         <v>346</v>
       </c>
@@ -40456,7 +40459,7 @@
       </c>
       <c r="D1065" s="3"/>
     </row>
-    <row r="1066" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1066" t="s">
         <v>346</v>
       </c>
@@ -40470,7 +40473,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="1067" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1067" t="s">
         <v>346</v>
       </c>
@@ -40482,7 +40485,7 @@
       </c>
       <c r="D1067" s="3"/>
     </row>
-    <row r="1068" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1068" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1068" t="s">
         <v>346</v>
       </c>
@@ -40494,7 +40497,7 @@
       </c>
       <c r="D1068" s="3"/>
     </row>
-    <row r="1069" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1069" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1069" t="s">
         <v>346</v>
       </c>
@@ -40506,7 +40509,7 @@
       </c>
       <c r="D1069" s="3"/>
     </row>
-    <row r="1070" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1070" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1070" t="s">
         <v>346</v>
       </c>
@@ -40518,7 +40521,7 @@
       </c>
       <c r="D1070" s="3"/>
     </row>
-    <row r="1071" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1071" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1071" t="s">
         <v>346</v>
       </c>
@@ -40532,7 +40535,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="1072" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1072" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1072" t="s">
         <v>346</v>
       </c>
@@ -40544,7 +40547,7 @@
       </c>
       <c r="D1072" s="3"/>
     </row>
-    <row r="1073" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1073" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1073" t="s">
         <v>346</v>
       </c>
@@ -40556,7 +40559,7 @@
       </c>
       <c r="D1073" s="3"/>
     </row>
-    <row r="1074" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1074" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1074" t="s">
         <v>346</v>
       </c>
@@ -40568,7 +40571,7 @@
       </c>
       <c r="D1074" s="3"/>
     </row>
-    <row r="1075" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1075" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1075" t="s">
         <v>346</v>
       </c>
@@ -40580,7 +40583,7 @@
       </c>
       <c r="D1075" s="3"/>
     </row>
-    <row r="1076" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1076" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1076" t="s">
         <v>346</v>
       </c>
@@ -40594,7 +40597,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="1077" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1077" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1077" t="s">
         <v>346</v>
       </c>
@@ -40606,7 +40609,7 @@
       </c>
       <c r="D1077" s="3"/>
     </row>
-    <row r="1078" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1078" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1078" t="s">
         <v>346</v>
       </c>
@@ -40618,7 +40621,7 @@
       </c>
       <c r="D1078" s="3"/>
     </row>
-    <row r="1079" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1079" t="s">
         <v>346</v>
       </c>
@@ -40630,7 +40633,7 @@
       </c>
       <c r="D1079" s="3"/>
     </row>
-    <row r="1080" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1080" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1080" t="s">
         <v>346</v>
       </c>
@@ -40642,7 +40645,7 @@
       </c>
       <c r="D1080" s="3"/>
     </row>
-    <row r="1081" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1081" t="s">
         <v>346</v>
       </c>
@@ -40656,7 +40659,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="1082" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1082" t="s">
         <v>346</v>
       </c>
@@ -40668,7 +40671,7 @@
       </c>
       <c r="D1082" s="3"/>
     </row>
-    <row r="1083" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1083" t="s">
         <v>346</v>
       </c>
@@ -40680,7 +40683,7 @@
       </c>
       <c r="D1083" s="3"/>
     </row>
-    <row r="1084" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1084" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1084" t="s">
         <v>346</v>
       </c>
@@ -40692,7 +40695,7 @@
       </c>
       <c r="D1084" s="3"/>
     </row>
-    <row r="1085" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1085" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1085" t="s">
         <v>346</v>
       </c>
@@ -40704,7 +40707,7 @@
       </c>
       <c r="D1085" s="3"/>
     </row>
-    <row r="1086" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1086" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1086" t="s">
         <v>346</v>
       </c>
@@ -40718,7 +40721,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="1087" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1087" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1087" t="s">
         <v>346</v>
       </c>
@@ -40730,7 +40733,7 @@
       </c>
       <c r="D1087" s="3"/>
     </row>
-    <row r="1088" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1088" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1088" t="s">
         <v>346</v>
       </c>
@@ -40742,7 +40745,7 @@
       </c>
       <c r="D1088" s="3"/>
     </row>
-    <row r="1089" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1089" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1089" t="s">
         <v>346</v>
       </c>
@@ -40754,7 +40757,7 @@
       </c>
       <c r="D1089" s="3"/>
     </row>
-    <row r="1090" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1090" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1090" t="s">
         <v>346</v>
       </c>
@@ -40766,7 +40769,7 @@
       </c>
       <c r="D1090" s="3"/>
     </row>
-    <row r="1091" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1091" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1091" t="s">
         <v>346</v>
       </c>
@@ -40780,7 +40783,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="1092" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1092" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1092" t="s">
         <v>346</v>
       </c>
@@ -40792,7 +40795,7 @@
       </c>
       <c r="D1092" s="3"/>
     </row>
-    <row r="1093" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1093" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1093" t="s">
         <v>346</v>
       </c>
@@ -40804,7 +40807,7 @@
       </c>
       <c r="D1093" s="3"/>
     </row>
-    <row r="1094" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1094" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1094" t="s">
         <v>346</v>
       </c>
@@ -40816,7 +40819,7 @@
       </c>
       <c r="D1094" s="3"/>
     </row>
-    <row r="1095" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1095" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1095" t="s">
         <v>346</v>
       </c>
@@ -40828,7 +40831,7 @@
       </c>
       <c r="D1095" s="3"/>
     </row>
-    <row r="1096" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1096" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1096" t="s">
         <v>346</v>
       </c>
@@ -40842,7 +40845,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="1097" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1097" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1097" t="s">
         <v>346</v>
       </c>
@@ -40854,7 +40857,7 @@
       </c>
       <c r="D1097" s="3"/>
     </row>
-    <row r="1098" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1098" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1098" t="s">
         <v>346</v>
       </c>
@@ -40866,7 +40869,7 @@
       </c>
       <c r="D1098" s="3"/>
     </row>
-    <row r="1099" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1099" t="s">
         <v>346</v>
       </c>
@@ -40878,7 +40881,7 @@
       </c>
       <c r="D1099" s="3"/>
     </row>
-    <row r="1100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1100" t="s">
         <v>346</v>
       </c>
@@ -40890,7 +40893,7 @@
       </c>
       <c r="D1100" s="3"/>
     </row>
-    <row r="1101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1101" t="s">
         <v>346</v>
       </c>
@@ -40904,7 +40907,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="1102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1102" t="s">
         <v>346</v>
       </c>
@@ -40916,7 +40919,7 @@
       </c>
       <c r="D1102" s="3"/>
     </row>
-    <row r="1103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1103" t="s">
         <v>346</v>
       </c>
@@ -40928,7 +40931,7 @@
       </c>
       <c r="D1103" s="3"/>
     </row>
-    <row r="1104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1104" t="s">
         <v>346</v>
       </c>
@@ -40940,7 +40943,7 @@
       </c>
       <c r="D1104" s="3"/>
     </row>
-    <row r="1105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1105" t="s">
         <v>346</v>
       </c>
@@ -40952,7 +40955,7 @@
       </c>
       <c r="D1105" s="3"/>
     </row>
-    <row r="1106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1106" t="s">
         <v>346</v>
       </c>
@@ -40966,7 +40969,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="1107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1107" t="s">
         <v>346</v>
       </c>
@@ -40978,7 +40981,7 @@
       </c>
       <c r="D1107" s="3"/>
     </row>
-    <row r="1108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1108" t="s">
         <v>346</v>
       </c>
@@ -40990,7 +40993,7 @@
       </c>
       <c r="D1108" s="3"/>
     </row>
-    <row r="1109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1109" t="s">
         <v>346</v>
       </c>
@@ -41002,7 +41005,7 @@
       </c>
       <c r="D1109" s="3"/>
     </row>
-    <row r="1110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1110" t="s">
         <v>346</v>
       </c>
@@ -41014,7 +41017,7 @@
       </c>
       <c r="D1110" s="3"/>
     </row>
-    <row r="1111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1111" t="s">
         <v>346</v>
       </c>
@@ -41028,7 +41031,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="1112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1112" t="s">
         <v>346</v>
       </c>
@@ -41040,7 +41043,7 @@
       </c>
       <c r="D1112" s="3"/>
     </row>
-    <row r="1113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1113" t="s">
         <v>346</v>
       </c>
@@ -41052,7 +41055,7 @@
       </c>
       <c r="D1113" s="3"/>
     </row>
-    <row r="1114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1114" t="s">
         <v>346</v>
       </c>
@@ -41064,7 +41067,7 @@
       </c>
       <c r="D1114" s="3"/>
     </row>
-    <row r="1115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1115" t="s">
         <v>346</v>
       </c>
@@ -48168,7 +48171,7 @@
       </c>
       <c r="D1692" s="3"/>
     </row>
-    <row r="1693" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1693" t="s">
         <v>317</v>
       </c>
@@ -48182,7 +48185,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="1694" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1694" t="s">
         <v>317</v>
       </c>
@@ -48194,7 +48197,7 @@
       </c>
       <c r="D1694" s="3"/>
     </row>
-    <row r="1695" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1695" t="s">
         <v>317</v>
       </c>
@@ -48206,7 +48209,7 @@
       </c>
       <c r="D1695" s="3"/>
     </row>
-    <row r="1696" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1696" t="s">
         <v>317</v>
       </c>
@@ -48218,7 +48221,7 @@
       </c>
       <c r="D1696" s="3"/>
     </row>
-    <row r="1697" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1697" t="s">
         <v>317</v>
       </c>
@@ -48230,7 +48233,7 @@
       </c>
       <c r="D1697" s="3"/>
     </row>
-    <row r="1698" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1698" t="s">
         <v>317</v>
       </c>
@@ -48242,7 +48245,7 @@
       </c>
       <c r="D1698" s="3"/>
     </row>
-    <row r="1699" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1699" t="s">
         <v>317</v>
       </c>
@@ -48254,7 +48257,7 @@
       </c>
       <c r="D1699" s="3"/>
     </row>
-    <row r="1700" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1700" t="s">
         <v>317</v>
       </c>
@@ -48268,7 +48271,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="1701" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1701" t="s">
         <v>317</v>
       </c>
@@ -48280,7 +48283,7 @@
       </c>
       <c r="D1701" s="3"/>
     </row>
-    <row r="1702" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1702" t="s">
         <v>317</v>
       </c>
@@ -48292,7 +48295,7 @@
       </c>
       <c r="D1702" s="3"/>
     </row>
-    <row r="1703" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1703" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1703" t="s">
         <v>317</v>
       </c>
@@ -48304,7 +48307,7 @@
       </c>
       <c r="D1703" s="3"/>
     </row>
-    <row r="1704" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1704" t="s">
         <v>317</v>
       </c>
@@ -48316,7 +48319,7 @@
       </c>
       <c r="D1704" s="3"/>
     </row>
-    <row r="1705" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1705" t="s">
         <v>317</v>
       </c>
@@ -48328,7 +48331,7 @@
       </c>
       <c r="D1705" s="3"/>
     </row>
-    <row r="1706" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1706" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1706" t="s">
         <v>317</v>
       </c>
@@ -48340,7 +48343,7 @@
       </c>
       <c r="D1706" s="3"/>
     </row>
-    <row r="1707" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1707" t="s">
         <v>317</v>
       </c>
@@ -48354,7 +48357,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="1708" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1708" t="s">
         <v>317</v>
       </c>
@@ -48366,7 +48369,7 @@
       </c>
       <c r="D1708" s="3"/>
     </row>
-    <row r="1709" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1709" t="s">
         <v>317</v>
       </c>
@@ -48378,7 +48381,7 @@
       </c>
       <c r="D1709" s="3"/>
     </row>
-    <row r="1710" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1710" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1710" t="s">
         <v>317</v>
       </c>
@@ -48390,7 +48393,7 @@
       </c>
       <c r="D1710" s="3"/>
     </row>
-    <row r="1711" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1711" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1711" t="s">
         <v>317</v>
       </c>
@@ -48402,7 +48405,7 @@
       </c>
       <c r="D1711" s="3"/>
     </row>
-    <row r="1712" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1712" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1712" t="s">
         <v>317</v>
       </c>
@@ -48414,7 +48417,7 @@
       </c>
       <c r="D1712" s="3"/>
     </row>
-    <row r="1713" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1713" t="s">
         <v>317</v>
       </c>
@@ -52541,7 +52544,7 @@
   <autoFilter ref="A1:E2044" xr:uid="{00000000-0001-0000-0200-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="pb_aim_iam_fim"/>
+        <filter val="pb_audit_c"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
+++ b/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vithal\Documents\GitHub\dcfdictionary\gdcdictionary\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3ABEA0-971A-4833-BFE3-7E678EDA5284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAB8B9B-CE9C-4F59-BC44-7077A9E344DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="1605" windowWidth="20745" windowHeight="13785" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="825" windowWidth="24990" windowHeight="13785" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes_impowr" sheetId="1" r:id="rId1"/>
@@ -14489,8 +14489,8 @@
   <dimension ref="A1:K958"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A619" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B193" sqref="B193"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15258,7 +15258,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>223</v>
       </c>
@@ -15273,7 +15273,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>223</v>
       </c>
@@ -15287,7 +15287,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>223</v>
       </c>
@@ -15301,7 +15301,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>223</v>
       </c>
@@ -15315,7 +15315,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>223</v>
       </c>
@@ -15329,7 +15329,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>223</v>
       </c>
@@ -15343,7 +15343,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>223</v>
       </c>
@@ -15357,7 +15357,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>223</v>
       </c>
@@ -15371,7 +15371,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>223</v>
       </c>
@@ -15385,7 +15385,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>223</v>
       </c>
@@ -15399,7 +15399,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>223</v>
       </c>
@@ -15413,7 +15413,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>223</v>
       </c>
@@ -15427,7 +15427,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>223</v>
       </c>
@@ -15441,7 +15441,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>223</v>
       </c>
@@ -15455,7 +15455,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>223</v>
       </c>
@@ -15469,7 +15469,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>223</v>
       </c>
@@ -15483,7 +15483,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>223</v>
       </c>
@@ -15497,7 +15497,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>223</v>
       </c>
@@ -15511,7 +15511,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>223</v>
       </c>
@@ -15525,7 +15525,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>223</v>
       </c>
@@ -15539,7 +15539,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>223</v>
       </c>
@@ -15553,7 +15553,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>223</v>
       </c>
@@ -15567,7 +15567,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>223</v>
       </c>
@@ -15581,7 +15581,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>223</v>
       </c>
@@ -15595,7 +15595,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>223</v>
       </c>
@@ -15609,7 +15609,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>223</v>
       </c>
@@ -15623,7 +15623,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>223</v>
       </c>
@@ -15637,7 +15637,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>223</v>
       </c>
@@ -15651,7 +15651,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>223</v>
       </c>
@@ -15665,7 +15665,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>223</v>
       </c>
@@ -15679,7 +15679,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>223</v>
       </c>
@@ -15693,7 +15693,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>223</v>
       </c>
@@ -15707,7 +15707,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>223</v>
       </c>
@@ -15721,7 +15721,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>223</v>
       </c>
@@ -15735,7 +15735,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>223</v>
       </c>
@@ -15749,7 +15749,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>223</v>
       </c>
@@ -15763,7 +15763,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>223</v>
       </c>
@@ -15777,7 +15777,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>223</v>
       </c>
@@ -15791,7 +15791,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>223</v>
       </c>
@@ -15805,7 +15805,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>223</v>
       </c>
@@ -15819,7 +15819,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>223</v>
       </c>
@@ -15833,7 +15833,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>223</v>
       </c>
@@ -15847,7 +15847,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>223</v>
       </c>
@@ -15861,7 +15861,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>223</v>
       </c>
@@ -15875,7 +15875,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>223</v>
       </c>
@@ -15889,7 +15889,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>223</v>
       </c>
@@ -15903,7 +15903,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>223</v>
       </c>
@@ -15917,7 +15917,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>223</v>
       </c>
@@ -15931,7 +15931,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>223</v>
       </c>
@@ -15945,7 +15945,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>223</v>
       </c>
@@ -15959,7 +15959,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>223</v>
       </c>
@@ -15973,7 +15973,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>223</v>
       </c>
@@ -15987,7 +15987,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>223</v>
       </c>
@@ -16001,7 +16001,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>223</v>
       </c>
@@ -23200,7 +23200,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>298</v>
       </c>
@@ -23214,7 +23214,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>298</v>
       </c>
@@ -23228,7 +23228,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>298</v>
       </c>
@@ -23242,7 +23242,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>298</v>
       </c>
@@ -23256,7 +23256,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>298</v>
       </c>
@@ -23270,7 +23270,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>298</v>
       </c>
@@ -27964,7 +27964,7 @@
   <autoFilter ref="A1:K958" xr:uid="{00000000-0001-0000-0100-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="pb_pain_catastrophizing"/>
+        <filter val="pb_impowr_demographics"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A437:K457">

--- a/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
+++ b/gdcdictionary/xlsx/nodes_schema_impowr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\root\wakeforest\dcfdictionary\gdcdictionary\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D0F238-4FBF-4C38-ACAB-07659C1D2A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD92B9E5-3BCB-4519-881A-30203EE64D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-21710" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes_impowr" sheetId="1" r:id="rId1"/>
@@ -7172,9 +7172,6 @@
     <t>Very concerned</t>
   </si>
   <si>
-    <t>Very dissastisfied</t>
-  </si>
-  <si>
     <t>Somewhat dissatisfied</t>
   </si>
   <si>
@@ -9091,6 +9088,9 @@
   </si>
   <si>
     <t>DID NOT AFFECT my chronic pain access</t>
+  </si>
+  <si>
+    <t>Very dissatisfied</t>
   </si>
 </sst>
 </file>
@@ -9687,7 +9687,7 @@
         <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="H2" t="s">
         <v>48</v>
@@ -9708,7 +9708,7 @@
         <v>60</v>
       </c>
       <c r="O2" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="P2" t="s">
         <v>67</v>
@@ -9732,7 +9732,7 @@
         <v>59</v>
       </c>
       <c r="Y2" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.45">
@@ -9779,7 +9779,7 @@
         <v>67</v>
       </c>
       <c r="Q3" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="R3" t="s">
         <v>73</v>
@@ -9788,7 +9788,7 @@
         <v>77</v>
       </c>
       <c r="T3" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="U3" t="s">
         <v>83</v>
@@ -9911,10 +9911,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C6" t="s">
         <v>2581</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2582</v>
       </c>
       <c r="D6" t="s">
         <v>43</v>
@@ -9953,7 +9953,7 @@
         <v>71</v>
       </c>
       <c r="R6" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="S6" t="s">
         <v>77</v>
@@ -10148,7 +10148,7 @@
         <v>75</v>
       </c>
       <c r="R9" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="S9" t="s">
         <v>80</v>
@@ -10213,7 +10213,7 @@
         <v>75</v>
       </c>
       <c r="R10" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="S10" t="s">
         <v>79</v>
@@ -10408,7 +10408,7 @@
         <v>216</v>
       </c>
       <c r="R13" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="S13" t="s">
         <v>77</v>
@@ -10473,7 +10473,7 @@
         <v>216</v>
       </c>
       <c r="R14" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="S14" t="s">
         <v>77</v>
@@ -10517,7 +10517,7 @@
         <v>48</v>
       </c>
       <c r="J15" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="K15" t="s">
         <v>58</v>
@@ -10535,7 +10535,7 @@
         <v>67</v>
       </c>
       <c r="Q15" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="R15" t="s">
         <v>221</v>
@@ -10564,7 +10564,7 @@
         <v>223</v>
       </c>
       <c r="C16" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="D16" t="s">
         <v>43</v>
@@ -10582,7 +10582,7 @@
         <v>48</v>
       </c>
       <c r="J16" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="K16" t="s">
         <v>58</v>
@@ -10647,7 +10647,7 @@
         <v>48</v>
       </c>
       <c r="J17" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="K17" t="s">
         <v>58</v>
@@ -10712,7 +10712,7 @@
         <v>48</v>
       </c>
       <c r="J18" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="K18" t="s">
         <v>58</v>
@@ -10730,10 +10730,10 @@
         <v>67</v>
       </c>
       <c r="Q18" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="R18" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="S18" t="s">
         <v>77</v>
@@ -10777,7 +10777,7 @@
         <v>48</v>
       </c>
       <c r="J19" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="K19" t="s">
         <v>58</v>
@@ -10795,10 +10795,10 @@
         <v>67</v>
       </c>
       <c r="Q19" t="s">
+        <v>2495</v>
+      </c>
+      <c r="R19" t="s">
         <v>2496</v>
-      </c>
-      <c r="R19" t="s">
-        <v>2497</v>
       </c>
       <c r="S19" t="s">
         <v>77</v>
@@ -10842,7 +10842,7 @@
         <v>48</v>
       </c>
       <c r="J20" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="K20" t="s">
         <v>58</v>
@@ -10860,10 +10860,10 @@
         <v>67</v>
       </c>
       <c r="Q20" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="R20" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="S20" t="s">
         <v>77</v>
@@ -10907,7 +10907,7 @@
         <v>48</v>
       </c>
       <c r="J21" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="K21" t="s">
         <v>58</v>
@@ -10925,10 +10925,10 @@
         <v>67</v>
       </c>
       <c r="Q21" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="R21" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="S21" t="s">
         <v>77</v>
@@ -10972,7 +10972,7 @@
         <v>48</v>
       </c>
       <c r="J22" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="K22" t="s">
         <v>58</v>
@@ -10990,10 +10990,10 @@
         <v>67</v>
       </c>
       <c r="Q22" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="R22" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="S22" t="s">
         <v>77</v>
@@ -11037,7 +11037,7 @@
         <v>48</v>
       </c>
       <c r="J23" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="K23" t="s">
         <v>58</v>
@@ -11055,10 +11055,10 @@
         <v>67</v>
       </c>
       <c r="Q23" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="R23" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="S23" t="s">
         <v>77</v>
@@ -11102,7 +11102,7 @@
         <v>48</v>
       </c>
       <c r="J24" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="K24" t="s">
         <v>58</v>
@@ -11120,10 +11120,10 @@
         <v>67</v>
       </c>
       <c r="Q24" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="R24" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="S24" t="s">
         <v>77</v>
@@ -11167,7 +11167,7 @@
         <v>48</v>
       </c>
       <c r="J25" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="K25" t="s">
         <v>58</v>
@@ -11185,10 +11185,10 @@
         <v>67</v>
       </c>
       <c r="Q25" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="R25" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="S25" t="s">
         <v>77</v>
@@ -11232,7 +11232,7 @@
         <v>48</v>
       </c>
       <c r="J26" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="K26" t="s">
         <v>58</v>
@@ -11250,10 +11250,10 @@
         <v>67</v>
       </c>
       <c r="Q26" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="R26" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="S26" t="s">
         <v>77</v>
@@ -11297,7 +11297,7 @@
         <v>48</v>
       </c>
       <c r="J27" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="K27" t="s">
         <v>58</v>
@@ -11315,10 +11315,10 @@
         <v>67</v>
       </c>
       <c r="Q27" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="R27" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="S27" t="s">
         <v>77</v>
@@ -11362,7 +11362,7 @@
         <v>48</v>
       </c>
       <c r="J28" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="K28" t="s">
         <v>58</v>
@@ -11380,10 +11380,10 @@
         <v>67</v>
       </c>
       <c r="Q28" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="R28" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="S28" t="s">
         <v>77</v>
@@ -11409,7 +11409,7 @@
         <v>300</v>
       </c>
       <c r="C29" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="D29" t="s">
         <v>43</v>
@@ -11427,7 +11427,7 @@
         <v>48</v>
       </c>
       <c r="J29" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="K29" t="s">
         <v>58</v>
@@ -11445,10 +11445,10 @@
         <v>67</v>
       </c>
       <c r="Q29" t="s">
+        <v>2505</v>
+      </c>
+      <c r="R29" t="s">
         <v>2506</v>
-      </c>
-      <c r="R29" t="s">
-        <v>2507</v>
       </c>
       <c r="S29" t="s">
         <v>77</v>
@@ -11474,7 +11474,7 @@
         <v>301</v>
       </c>
       <c r="C30" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="D30" t="s">
         <v>43</v>
@@ -11492,7 +11492,7 @@
         <v>48</v>
       </c>
       <c r="J30" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="K30" t="s">
         <v>58</v>
@@ -11510,10 +11510,10 @@
         <v>67</v>
       </c>
       <c r="Q30" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="R30" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="S30" t="s">
         <v>77</v>
@@ -11557,7 +11557,7 @@
         <v>48</v>
       </c>
       <c r="J31" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="K31" t="s">
         <v>58</v>
@@ -11575,7 +11575,7 @@
         <v>67</v>
       </c>
       <c r="Q31" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="R31" t="s">
         <v>320</v>
@@ -11622,7 +11622,7 @@
         <v>48</v>
       </c>
       <c r="J32" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="K32" t="s">
         <v>58</v>
@@ -11640,10 +11640,10 @@
         <v>67</v>
       </c>
       <c r="Q32" s="16" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="R32" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="S32" t="s">
         <v>77</v>
@@ -11687,7 +11687,7 @@
         <v>48</v>
       </c>
       <c r="J33" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="K33" t="s">
         <v>58</v>
@@ -11705,7 +11705,7 @@
         <v>67</v>
       </c>
       <c r="Q33" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="R33" t="s">
         <v>317</v>
@@ -11752,7 +11752,7 @@
         <v>48</v>
       </c>
       <c r="J34" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="K34" t="s">
         <v>58</v>
@@ -11770,10 +11770,10 @@
         <v>67</v>
       </c>
       <c r="Q34" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="R34" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="S34" t="s">
         <v>77</v>
@@ -11817,7 +11817,7 @@
         <v>48</v>
       </c>
       <c r="J35" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="K35" t="s">
         <v>58</v>
@@ -11835,7 +11835,7 @@
         <v>67</v>
       </c>
       <c r="Q35" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="R35" t="s">
         <v>319</v>
@@ -11882,7 +11882,7 @@
         <v>48</v>
       </c>
       <c r="J36" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="K36" t="s">
         <v>58</v>
@@ -11900,10 +11900,10 @@
         <v>67</v>
       </c>
       <c r="Q36" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="R36" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="S36" t="s">
         <v>77</v>
@@ -11947,7 +11947,7 @@
         <v>48</v>
       </c>
       <c r="J37" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="K37" t="s">
         <v>58</v>
@@ -11965,10 +11965,10 @@
         <v>67</v>
       </c>
       <c r="Q37" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="R37" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="S37" t="s">
         <v>77</v>
@@ -11994,7 +11994,7 @@
         <v>321</v>
       </c>
       <c r="C38" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="D38" t="s">
         <v>43</v>
@@ -12012,7 +12012,7 @@
         <v>48</v>
       </c>
       <c r="J38" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="K38" t="s">
         <v>58</v>
@@ -12030,10 +12030,10 @@
         <v>67</v>
       </c>
       <c r="Q38" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="R38" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="S38" t="s">
         <v>77</v>
@@ -12077,7 +12077,7 @@
         <v>48</v>
       </c>
       <c r="J39" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="K39" t="s">
         <v>58</v>
@@ -12095,10 +12095,10 @@
         <v>67</v>
       </c>
       <c r="Q39" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="R39" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="S39" t="s">
         <v>77</v>
@@ -12142,7 +12142,7 @@
         <v>48</v>
       </c>
       <c r="J40" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="K40" t="s">
         <v>58</v>
@@ -12160,10 +12160,10 @@
         <v>67</v>
       </c>
       <c r="Q40" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="R40" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="S40" t="s">
         <v>77</v>
@@ -12189,7 +12189,7 @@
         <v>312</v>
       </c>
       <c r="C41" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="D41" t="s">
         <v>43</v>
@@ -12207,7 +12207,7 @@
         <v>48</v>
       </c>
       <c r="J41" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="K41" t="s">
         <v>58</v>
@@ -12225,7 +12225,7 @@
         <v>67</v>
       </c>
       <c r="Q41" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="R41" t="s">
         <v>312</v>
@@ -12254,7 +12254,7 @@
         <v>313</v>
       </c>
       <c r="C42" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="D42" t="s">
         <v>43</v>
@@ -12272,7 +12272,7 @@
         <v>48</v>
       </c>
       <c r="J42" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="K42" t="s">
         <v>58</v>
@@ -12290,10 +12290,10 @@
         <v>67</v>
       </c>
       <c r="Q42" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="R42" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="S42" t="s">
         <v>77</v>
@@ -12337,7 +12337,7 @@
         <v>48</v>
       </c>
       <c r="J43" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="K43" t="s">
         <v>58</v>
@@ -12355,10 +12355,10 @@
         <v>67</v>
       </c>
       <c r="Q43" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="R43" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="S43" t="s">
         <v>77</v>
@@ -12402,7 +12402,7 @@
         <v>48</v>
       </c>
       <c r="J44" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="K44" t="s">
         <v>58</v>
@@ -12420,10 +12420,10 @@
         <v>67</v>
       </c>
       <c r="Q44" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="R44" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="S44" t="s">
         <v>77</v>
@@ -12467,7 +12467,7 @@
         <v>48</v>
       </c>
       <c r="J45" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="K45" t="s">
         <v>58</v>
@@ -12485,10 +12485,10 @@
         <v>67</v>
       </c>
       <c r="Q45" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="R45" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="S45" t="s">
         <v>77</v>
@@ -12532,7 +12532,7 @@
         <v>48</v>
       </c>
       <c r="J46" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="K46" t="s">
         <v>58</v>
@@ -12550,10 +12550,10 @@
         <v>67</v>
       </c>
       <c r="Q46" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="R46" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="S46" t="s">
         <v>77</v>
@@ -12615,10 +12615,10 @@
         <v>67</v>
       </c>
       <c r="Q47" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="R47" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="S47" t="s">
         <v>77</v>
@@ -12662,7 +12662,7 @@
         <v>48</v>
       </c>
       <c r="J48" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="K48" t="s">
         <v>58</v>
@@ -12680,10 +12680,10 @@
         <v>67</v>
       </c>
       <c r="Q48" t="s">
+        <v>2512</v>
+      </c>
+      <c r="R48" t="s">
         <v>2513</v>
-      </c>
-      <c r="R48" t="s">
-        <v>2514</v>
       </c>
       <c r="S48" t="s">
         <v>77</v>
@@ -12727,7 +12727,7 @@
         <v>48</v>
       </c>
       <c r="J49" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="K49" t="s">
         <v>58</v>
@@ -12745,10 +12745,10 @@
         <v>67</v>
       </c>
       <c r="Q49" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="R49" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="S49" t="s">
         <v>77</v>
@@ -12792,7 +12792,7 @@
         <v>48</v>
       </c>
       <c r="J50" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="K50" t="s">
         <v>58</v>
@@ -12810,10 +12810,10 @@
         <v>67</v>
       </c>
       <c r="Q50" t="s">
+        <v>2514</v>
+      </c>
+      <c r="R50" t="s">
         <v>2515</v>
-      </c>
-      <c r="R50" t="s">
-        <v>2516</v>
       </c>
       <c r="S50" t="s">
         <v>77</v>
@@ -12857,7 +12857,7 @@
         <v>48</v>
       </c>
       <c r="J51" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="K51" t="s">
         <v>58</v>
@@ -12875,10 +12875,10 @@
         <v>67</v>
       </c>
       <c r="Q51" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="R51" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="S51" t="s">
         <v>77</v>
@@ -12922,7 +12922,7 @@
         <v>48</v>
       </c>
       <c r="J52" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="K52" t="s">
         <v>58</v>
@@ -12940,10 +12940,10 @@
         <v>67</v>
       </c>
       <c r="Q52" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="R52" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="S52" t="s">
         <v>77</v>
@@ -12987,7 +12987,7 @@
         <v>48</v>
       </c>
       <c r="J53" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="K53" t="s">
         <v>58</v>
@@ -13005,10 +13005,10 @@
         <v>67</v>
       </c>
       <c r="Q53" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="R53" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="S53" t="s">
         <v>77</v>
@@ -13052,7 +13052,7 @@
         <v>48</v>
       </c>
       <c r="J54" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="K54" t="s">
         <v>58</v>
@@ -13070,10 +13070,10 @@
         <v>67</v>
       </c>
       <c r="Q54" t="s">
+        <v>2516</v>
+      </c>
+      <c r="R54" t="s">
         <v>2517</v>
-      </c>
-      <c r="R54" t="s">
-        <v>2518</v>
       </c>
       <c r="S54" t="s">
         <v>77</v>
@@ -13117,7 +13117,7 @@
         <v>48</v>
       </c>
       <c r="J55" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="K55" t="s">
         <v>58</v>
@@ -13135,10 +13135,10 @@
         <v>67</v>
       </c>
       <c r="Q55" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="R55" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="S55" t="s">
         <v>77</v>
@@ -13182,7 +13182,7 @@
         <v>48</v>
       </c>
       <c r="J56" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="K56" t="s">
         <v>58</v>
@@ -13200,10 +13200,10 @@
         <v>67</v>
       </c>
       <c r="Q56" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="R56" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="S56" t="s">
         <v>77</v>
@@ -13247,7 +13247,7 @@
         <v>48</v>
       </c>
       <c r="J57" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="K57" t="s">
         <v>58</v>
@@ -13265,10 +13265,10 @@
         <v>67</v>
       </c>
       <c r="Q57" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="R57" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="S57" t="s">
         <v>77</v>
@@ -13312,7 +13312,7 @@
         <v>48</v>
       </c>
       <c r="J58" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="K58" t="s">
         <v>58</v>
@@ -13330,10 +13330,10 @@
         <v>67</v>
       </c>
       <c r="Q58" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="R58" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="S58" t="s">
         <v>77</v>
@@ -13377,7 +13377,7 @@
         <v>48</v>
       </c>
       <c r="J59" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="K59" t="s">
         <v>58</v>
@@ -13395,7 +13395,7 @@
         <v>67</v>
       </c>
       <c r="Q59" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="R59" t="s">
         <v>334</v>
@@ -13442,7 +13442,7 @@
         <v>48</v>
       </c>
       <c r="J60" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="K60" t="s">
         <v>58</v>
@@ -13460,10 +13460,10 @@
         <v>67</v>
       </c>
       <c r="Q60" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="R60" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="S60" t="s">
         <v>77</v>
@@ -13507,7 +13507,7 @@
         <v>48</v>
       </c>
       <c r="J61" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="K61" t="s">
         <v>58</v>
@@ -13525,10 +13525,10 @@
         <v>67</v>
       </c>
       <c r="Q61" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="R61" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="S61" t="s">
         <v>77</v>
@@ -13572,7 +13572,7 @@
         <v>48</v>
       </c>
       <c r="J62" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="K62" t="s">
         <v>58</v>
@@ -13590,10 +13590,10 @@
         <v>67</v>
       </c>
       <c r="Q62" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="R62" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="S62" t="s">
         <v>77</v>
@@ -13637,7 +13637,7 @@
         <v>48</v>
       </c>
       <c r="J63" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="K63" t="s">
         <v>58</v>
@@ -13655,10 +13655,10 @@
         <v>67</v>
       </c>
       <c r="Q63" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="R63" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="S63" t="s">
         <v>77</v>
@@ -13702,7 +13702,7 @@
         <v>48</v>
       </c>
       <c r="J64" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="K64" t="s">
         <v>58</v>
@@ -13720,7 +13720,7 @@
         <v>67</v>
       </c>
       <c r="Q64" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="R64" t="s">
         <v>243</v>
@@ -13767,7 +13767,7 @@
         <v>48</v>
       </c>
       <c r="J65" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="K65" t="s">
         <v>58</v>
@@ -13788,7 +13788,7 @@
         <v>243</v>
       </c>
       <c r="R65" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="S65" t="s">
         <v>77</v>
@@ -13832,7 +13832,7 @@
         <v>48</v>
       </c>
       <c r="J66" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="K66" t="s">
         <v>58</v>
@@ -13853,7 +13853,7 @@
         <v>243</v>
       </c>
       <c r="R66" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="S66" t="s">
         <v>77</v>
@@ -13897,7 +13897,7 @@
         <v>48</v>
       </c>
       <c r="J67" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="K67" t="s">
         <v>58</v>
@@ -13918,7 +13918,7 @@
         <v>243</v>
       </c>
       <c r="R67" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="S67" t="s">
         <v>77</v>
@@ -13962,7 +13962,7 @@
         <v>48</v>
       </c>
       <c r="J68" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="K68" t="s">
         <v>58</v>
@@ -13983,7 +13983,7 @@
         <v>243</v>
       </c>
       <c r="R68" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="S68" t="s">
         <v>77</v>
@@ -14027,7 +14027,7 @@
         <v>48</v>
       </c>
       <c r="J69" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="K69" t="s">
         <v>58</v>
@@ -14048,7 +14048,7 @@
         <v>243</v>
       </c>
       <c r="R69" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S69" t="s">
         <v>77</v>
@@ -14092,7 +14092,7 @@
         <v>48</v>
       </c>
       <c r="J70" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="K70" t="s">
         <v>58</v>
@@ -14110,10 +14110,10 @@
         <v>67</v>
       </c>
       <c r="Q70" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="R70" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="S70" t="s">
         <v>77</v>
@@ -14157,7 +14157,7 @@
         <v>48</v>
       </c>
       <c r="J71" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="K71" t="s">
         <v>58</v>
@@ -14175,10 +14175,10 @@
         <v>67</v>
       </c>
       <c r="Q71" t="s">
+        <v>2563</v>
+      </c>
+      <c r="R71" t="s">
         <v>2564</v>
-      </c>
-      <c r="R71" t="s">
-        <v>2565</v>
       </c>
       <c r="S71" t="s">
         <v>77</v>
@@ -14222,7 +14222,7 @@
         <v>48</v>
       </c>
       <c r="J72" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="K72" t="s">
         <v>58</v>
@@ -14240,10 +14240,10 @@
         <v>67</v>
       </c>
       <c r="Q72" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="R72" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="S72" t="s">
         <v>77</v>
@@ -14287,7 +14287,7 @@
         <v>48</v>
       </c>
       <c r="J73" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="K73" t="s">
         <v>58</v>
@@ -14305,10 +14305,10 @@
         <v>67</v>
       </c>
       <c r="Q73" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="R73" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="S73" t="s">
         <v>77</v>
@@ -14334,7 +14334,7 @@
         <v>342</v>
       </c>
       <c r="C74" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="D74" t="s">
         <v>43</v>
@@ -14352,7 +14352,7 @@
         <v>48</v>
       </c>
       <c r="J74" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="K74" t="s">
         <v>58</v>
@@ -14370,10 +14370,10 @@
         <v>67</v>
       </c>
       <c r="Q74" t="s">
+        <v>2566</v>
+      </c>
+      <c r="R74" t="s">
         <v>2567</v>
-      </c>
-      <c r="R74" t="s">
-        <v>2568</v>
       </c>
       <c r="S74" t="s">
         <v>77</v>
@@ -14396,7 +14396,7 @@
         <v>25</v>
       </c>
       <c r="B75" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="C75" t="s">
         <v>277</v>
@@ -14417,7 +14417,7 @@
         <v>48</v>
       </c>
       <c r="J75" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="K75" t="s">
         <v>58</v>
@@ -14435,10 +14435,10 @@
         <v>67</v>
       </c>
       <c r="Q75" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="R75" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="S75" t="s">
         <v>77</v>
@@ -14482,7 +14482,7 @@
         <v>48</v>
       </c>
       <c r="J76" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="K76" t="s">
         <v>58</v>
@@ -14500,10 +14500,10 @@
         <v>67</v>
       </c>
       <c r="Q76" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="R76" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="S76" t="s">
         <v>77</v>
@@ -14547,7 +14547,7 @@
         <v>48</v>
       </c>
       <c r="J77" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="K77" t="s">
         <v>58</v>
@@ -14565,10 +14565,10 @@
         <v>67</v>
       </c>
       <c r="Q77" t="s">
+        <v>2569</v>
+      </c>
+      <c r="R77" t="s">
         <v>2570</v>
-      </c>
-      <c r="R77" t="s">
-        <v>2571</v>
       </c>
       <c r="S77" t="s">
         <v>77</v>
@@ -14612,7 +14612,7 @@
         <v>48</v>
       </c>
       <c r="J78" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="K78" t="s">
         <v>58</v>
@@ -14630,7 +14630,7 @@
         <v>67</v>
       </c>
       <c r="Q78" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="R78" t="s">
         <v>344</v>
@@ -14677,7 +14677,7 @@
         <v>48</v>
       </c>
       <c r="J79" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="K79" t="s">
         <v>58</v>
@@ -14695,10 +14695,10 @@
         <v>67</v>
       </c>
       <c r="Q79" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="R79" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="S79" t="s">
         <v>77</v>
@@ -14724,7 +14724,7 @@
         <v>249</v>
       </c>
       <c r="C80" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="D80" t="s">
         <v>43</v>
@@ -14763,7 +14763,7 @@
         <v>75</v>
       </c>
       <c r="R80" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="S80" t="s">
         <v>77</v>
@@ -14789,7 +14789,7 @@
         <v>281</v>
       </c>
       <c r="C81" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="D81" t="s">
         <v>43</v>
@@ -14825,10 +14825,10 @@
         <v>67</v>
       </c>
       <c r="Q81" t="s">
+        <v>2572</v>
+      </c>
+      <c r="R81" t="s">
         <v>2573</v>
-      </c>
-      <c r="R81" t="s">
-        <v>2574</v>
       </c>
       <c r="S81" t="s">
         <v>77</v>
@@ -14854,7 +14854,7 @@
         <v>346</v>
       </c>
       <c r="C82" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="D82" t="s">
         <v>43</v>
@@ -14890,10 +14890,10 @@
         <v>67</v>
       </c>
       <c r="Q82" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="R82" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S82" t="s">
         <v>77</v>
@@ -14919,7 +14919,7 @@
         <v>284</v>
       </c>
       <c r="C83" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="D83" t="s">
         <v>43</v>
@@ -14955,10 +14955,10 @@
         <v>67</v>
       </c>
       <c r="Q83" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="R83" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="S83" t="s">
         <v>77</v>
@@ -15002,7 +15002,7 @@
         <v>48</v>
       </c>
       <c r="J84" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="K84" t="s">
         <v>58</v>
@@ -15020,10 +15020,10 @@
         <v>67</v>
       </c>
       <c r="Q84" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="R84" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="S84" t="s">
         <v>77</v>
@@ -15067,7 +15067,7 @@
         <v>48</v>
       </c>
       <c r="J85" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="K85" t="s">
         <v>58</v>
@@ -15085,10 +15085,10 @@
         <v>67</v>
       </c>
       <c r="Q85" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="R85" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="S85" t="s">
         <v>77</v>
@@ -15132,7 +15132,7 @@
         <v>48</v>
       </c>
       <c r="J86" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="K86" t="s">
         <v>58</v>
@@ -15150,10 +15150,10 @@
         <v>67</v>
       </c>
       <c r="Q86" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="R86" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="S86" t="s">
         <v>77</v>
@@ -15215,10 +15215,10 @@
         <v>67</v>
       </c>
       <c r="Q87" t="s">
+        <v>2523</v>
+      </c>
+      <c r="R87" s="3" t="s">
         <v>2524</v>
-      </c>
-      <c r="R87" s="3" t="s">
-        <v>2525</v>
       </c>
       <c r="S87" t="s">
         <v>77</v>
@@ -15479,10 +15479,10 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="C2" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
@@ -15494,10 +15494,10 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="C3" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
@@ -15512,7 +15512,7 @@
         <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
@@ -16237,10 +16237,10 @@
         <v>223</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>177</v>
@@ -16251,10 +16251,10 @@
         <v>223</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>177</v>
@@ -16265,10 +16265,10 @@
         <v>223</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>177</v>
@@ -16279,10 +16279,10 @@
         <v>223</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>177</v>
@@ -16293,10 +16293,10 @@
         <v>223</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>177</v>
@@ -16307,10 +16307,10 @@
         <v>223</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>177</v>
@@ -16321,10 +16321,10 @@
         <v>223</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>177</v>
@@ -16335,10 +16335,10 @@
         <v>223</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>177</v>
@@ -16475,10 +16475,10 @@
         <v>223</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>177</v>
@@ -16489,10 +16489,10 @@
         <v>223</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>177</v>
@@ -16503,10 +16503,10 @@
         <v>223</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>177</v>
@@ -16517,10 +16517,10 @@
         <v>223</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>177</v>
@@ -16531,10 +16531,10 @@
         <v>223</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>177</v>
@@ -16545,10 +16545,10 @@
         <v>223</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>177</v>
@@ -16559,10 +16559,10 @@
         <v>223</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>177</v>
@@ -16573,10 +16573,10 @@
         <v>223</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>177</v>
@@ -16587,10 +16587,10 @@
         <v>223</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>177</v>
@@ -16601,10 +16601,10 @@
         <v>223</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>177</v>
@@ -16797,10 +16797,10 @@
         <v>223</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>177</v>
@@ -16811,10 +16811,10 @@
         <v>223</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>177</v>
@@ -16825,10 +16825,10 @@
         <v>223</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>177</v>
@@ -16839,10 +16839,10 @@
         <v>223</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>177</v>
@@ -16853,10 +16853,10 @@
         <v>223</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>177</v>
@@ -16867,10 +16867,10 @@
         <v>223</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>177</v>
@@ -16881,10 +16881,10 @@
         <v>223</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>177</v>
@@ -16895,10 +16895,10 @@
         <v>223</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>177</v>
@@ -16909,10 +16909,10 @@
         <v>223</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>177</v>
@@ -17077,10 +17077,10 @@
         <v>223</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>177</v>
@@ -17091,10 +17091,10 @@
         <v>223</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>177</v>
@@ -17105,10 +17105,10 @@
         <v>223</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>177</v>
@@ -17119,10 +17119,10 @@
         <v>223</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>177</v>
@@ -17133,10 +17133,10 @@
         <v>223</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>177</v>
@@ -17147,10 +17147,10 @@
         <v>223</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>177</v>
@@ -17161,10 +17161,10 @@
         <v>223</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>177</v>
@@ -17428,10 +17428,10 @@
         <v>224</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>177</v>
@@ -17442,10 +17442,10 @@
         <v>224</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>177</v>
@@ -17456,10 +17456,10 @@
         <v>224</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>177</v>
@@ -17470,10 +17470,10 @@
         <v>224</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>177</v>
@@ -17484,10 +17484,10 @@
         <v>224</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>177</v>
@@ -17597,11 +17597,11 @@
         <v>224</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>177</v>
@@ -17612,11 +17612,11 @@
         <v>224</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>177</v>
@@ -17627,11 +17627,11 @@
         <v>224</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>177</v>
@@ -17642,11 +17642,11 @@
         <v>224</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>177</v>
@@ -17657,11 +17657,11 @@
         <v>224</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>177</v>
@@ -17672,11 +17672,11 @@
         <v>224</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>177</v>
@@ -17687,11 +17687,11 @@
         <v>224</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>177</v>
@@ -17702,11 +17702,11 @@
         <v>224</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>177</v>
@@ -17717,11 +17717,11 @@
         <v>224</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>177</v>
@@ -17732,11 +17732,11 @@
         <v>224</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>177</v>
@@ -17747,11 +17747,11 @@
         <v>224</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>177</v>
@@ -17762,11 +17762,11 @@
         <v>224</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>177</v>
@@ -20395,10 +20395,10 @@
         <v>273</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="D351" s="4" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="E351" s="3" t="s">
         <v>177</v>
@@ -20409,10 +20409,10 @@
         <v>273</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="D352" s="4" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="E352" s="3" t="s">
         <v>177</v>
@@ -20423,10 +20423,10 @@
         <v>273</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="D353" s="4" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="E353" s="3" t="s">
         <v>177</v>
@@ -20437,10 +20437,10 @@
         <v>273</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="D354" s="4" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="E354" s="3" t="s">
         <v>177</v>
@@ -20451,10 +20451,10 @@
         <v>273</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="D355" s="4" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="E355" s="3" t="s">
         <v>177</v>
@@ -20465,10 +20465,10 @@
         <v>273</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="D356" s="4" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="E356" s="3" t="s">
         <v>177</v>
@@ -21442,7 +21442,7 @@
     </row>
     <row r="426" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A426" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B426" s="3" t="s">
         <v>992</v>
@@ -21456,7 +21456,7 @@
     </row>
     <row r="427" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A427" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B427" s="3" t="s">
         <v>993</v>
@@ -21470,7 +21470,7 @@
     </row>
     <row r="428" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A428" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B428" s="3" t="s">
         <v>994</v>
@@ -21484,7 +21484,7 @@
     </row>
     <row r="429" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A429" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>995</v>
@@ -21498,7 +21498,7 @@
     </row>
     <row r="430" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A430" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B430" s="3" t="s">
         <v>996</v>
@@ -23209,10 +23209,10 @@
         <v>290</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="D552" s="4" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="E552" s="3" t="s">
         <v>177</v>
@@ -23223,10 +23223,10 @@
         <v>290</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="D553" s="4" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
       <c r="E553" s="3" t="s">
         <v>177</v>
@@ -23237,10 +23237,10 @@
         <v>290</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="D554" s="4" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="E554" s="3" t="s">
         <v>177</v>
@@ -23251,10 +23251,10 @@
         <v>290</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="D555" s="4" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="E555" s="3" t="s">
         <v>177</v>
@@ -23265,10 +23265,10 @@
         <v>290</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="D556" s="4" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="E556" s="3" t="s">
         <v>177</v>
@@ -23279,10 +23279,10 @@
         <v>290</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="D557" s="4" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="E557" s="3" t="s">
         <v>177</v>
@@ -23293,10 +23293,10 @@
         <v>290</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="D558" s="4" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="E558" s="3" t="s">
         <v>177</v>
@@ -23307,10 +23307,10 @@
         <v>290</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="D559" s="4" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="E559" s="3" t="s">
         <v>177</v>
@@ -23321,10 +23321,10 @@
         <v>290</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="D560" s="4" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="E560" s="3" t="s">
         <v>177</v>
@@ -23335,10 +23335,10 @@
         <v>290</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="D561" s="4" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="E561" s="3" t="s">
         <v>177</v>
@@ -23349,10 +23349,10 @@
         <v>290</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="D562" s="4" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="E562" s="3" t="s">
         <v>177</v>
@@ -23363,10 +23363,10 @@
         <v>290</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="D563" s="4" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="E563" s="3" t="s">
         <v>177</v>
@@ -23377,10 +23377,10 @@
         <v>290</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="D564" s="4" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="E564" s="3" t="s">
         <v>177</v>
@@ -23391,10 +23391,10 @@
         <v>290</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="D565" s="4" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="E565" s="3" t="s">
         <v>177</v>
@@ -23405,10 +23405,10 @@
         <v>290</v>
       </c>
       <c r="B566" s="3" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="D566" s="4" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="E566" s="3" t="s">
         <v>177</v>
@@ -23419,10 +23419,10 @@
         <v>290</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="D567" s="4" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
       <c r="E567" s="3" t="s">
         <v>177</v>
@@ -23433,10 +23433,10 @@
         <v>290</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="D568" s="4" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="E568" s="3" t="s">
         <v>177</v>
@@ -23447,10 +23447,10 @@
         <v>290</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="D569" s="4" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="E569" s="3" t="s">
         <v>177</v>
@@ -23461,10 +23461,10 @@
         <v>290</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="D570" s="4" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
       <c r="E570" s="3" t="s">
         <v>177</v>
@@ -23475,10 +23475,10 @@
         <v>290</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="D571" s="4" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
       <c r="E571" s="3" t="s">
         <v>177</v>
@@ -23489,10 +23489,10 @@
         <v>290</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="D572" s="4" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
       <c r="E572" s="3" t="s">
         <v>177</v>
@@ -23503,10 +23503,10 @@
         <v>290</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="D573" s="4" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="E573" s="3" t="s">
         <v>177</v>
@@ -23517,10 +23517,10 @@
         <v>290</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="D574" s="4" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
       <c r="E574" s="3" t="s">
         <v>177</v>
@@ -23531,10 +23531,10 @@
         <v>290</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="D575" s="4" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
       <c r="E575" s="3" t="s">
         <v>177</v>
@@ -23545,10 +23545,10 @@
         <v>290</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="D576" s="4" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="E576" s="3" t="s">
         <v>177</v>
@@ -23559,10 +23559,10 @@
         <v>290</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="D577" s="4" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="E577" s="3" t="s">
         <v>177</v>
@@ -23573,10 +23573,10 @@
         <v>290</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="D578" s="4" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="E578" s="3" t="s">
         <v>177</v>
@@ -23587,10 +23587,10 @@
         <v>290</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="D579" s="4" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="E579" s="3" t="s">
         <v>177</v>
@@ -23601,10 +23601,10 @@
         <v>290</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="D580" s="4" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="E580" s="3" t="s">
         <v>177</v>
@@ -23615,10 +23615,10 @@
         <v>290</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="D581" s="4" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="E581" s="3" t="s">
         <v>177</v>
@@ -23629,10 +23629,10 @@
         <v>290</v>
       </c>
       <c r="B582" s="3" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="D582" s="4" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="E582" s="3" t="s">
         <v>177</v>
@@ -23643,10 +23643,10 @@
         <v>290</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="D583" s="4" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="E583" s="3" t="s">
         <v>177</v>
@@ -23657,10 +23657,10 @@
         <v>290</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="D584" s="4" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="E584" s="3" t="s">
         <v>177</v>
@@ -23671,10 +23671,10 @@
         <v>290</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="D585" s="4" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="E585" s="3" t="s">
         <v>177</v>
@@ -23685,10 +23685,10 @@
         <v>290</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="D586" s="4" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
       <c r="E586" s="3" t="s">
         <v>177</v>
@@ -23699,10 +23699,10 @@
         <v>290</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="D587" s="4" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="E587" s="3" t="s">
         <v>177</v>
@@ -24553,10 +24553,10 @@
         <v>2118</v>
       </c>
       <c r="B648" s="3" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="D648" s="4" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="E648" s="3" t="s">
         <v>177</v>
@@ -24567,10 +24567,10 @@
         <v>2118</v>
       </c>
       <c r="B649" s="3" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="D649" s="4" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="E649" s="3" t="s">
         <v>177</v>
@@ -24581,10 +24581,10 @@
         <v>2118</v>
       </c>
       <c r="B650" s="3" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="D650" s="4" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="E650" s="3" t="s">
         <v>177</v>
@@ -24595,10 +24595,10 @@
         <v>2118</v>
       </c>
       <c r="B651" s="3" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="D651" s="4" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="E651" s="3" t="s">
         <v>177</v>
@@ -24609,10 +24609,10 @@
         <v>2118</v>
       </c>
       <c r="B652" s="3" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="D652" s="4" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="E652" s="3" t="s">
         <v>177</v>
@@ -24623,10 +24623,10 @@
         <v>2118</v>
       </c>
       <c r="B653" s="3" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="D653" s="4" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="E653" s="3" t="s">
         <v>177</v>
@@ -24637,10 +24637,10 @@
         <v>2118</v>
       </c>
       <c r="B654" s="3" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="D654" s="4" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="E654" s="3" t="s">
         <v>177</v>
@@ -24651,10 +24651,10 @@
         <v>2118</v>
       </c>
       <c r="B655" s="3" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="D655" s="4" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="E655" s="3" t="s">
         <v>177</v>
@@ -24665,10 +24665,10 @@
         <v>2118</v>
       </c>
       <c r="B656" s="3" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="D656" s="4" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="E656" s="3" t="s">
         <v>177</v>
@@ -24679,10 +24679,10 @@
         <v>2118</v>
       </c>
       <c r="B657" s="3" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="D657" s="4" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="E657" s="3" t="s">
         <v>177</v>
@@ -24693,10 +24693,10 @@
         <v>2118</v>
       </c>
       <c r="B658" s="3" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="D658" s="4" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="E658" s="3" t="s">
         <v>177</v>
@@ -24707,10 +24707,10 @@
         <v>2118</v>
       </c>
       <c r="B659" s="3" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="D659" s="4" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="E659" s="3" t="s">
         <v>177</v>
@@ -24721,10 +24721,10 @@
         <v>2118</v>
       </c>
       <c r="B660" s="3" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="D660" s="4" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="E660" s="3" t="s">
         <v>177</v>
@@ -24735,10 +24735,10 @@
         <v>2118</v>
       </c>
       <c r="B661" s="3" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="D661" s="4" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="E661" s="3" t="s">
         <v>177</v>
@@ -24749,10 +24749,10 @@
         <v>2118</v>
       </c>
       <c r="B662" s="3" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="D662" s="4" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="E662" s="3" t="s">
         <v>177</v>
@@ -24763,10 +24763,10 @@
         <v>2118</v>
       </c>
       <c r="B663" s="3" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="D663" s="4" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="E663" s="3" t="s">
         <v>177</v>
@@ -24777,10 +24777,10 @@
         <v>2118</v>
       </c>
       <c r="B664" s="3" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="D664" s="4" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="E664" s="3" t="s">
         <v>177</v>
@@ -24791,10 +24791,10 @@
         <v>2118</v>
       </c>
       <c r="B665" s="3" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="D665" s="4" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="E665" s="3" t="s">
         <v>177</v>
@@ -24805,10 +24805,10 @@
         <v>2118</v>
       </c>
       <c r="B666" s="3" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="D666" s="4" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="E666" s="3" t="s">
         <v>177</v>
@@ -24819,10 +24819,10 @@
         <v>2118</v>
       </c>
       <c r="B667" s="3" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="D667" s="4" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="E667" s="3" t="s">
         <v>177</v>
@@ -24833,10 +24833,10 @@
         <v>2118</v>
       </c>
       <c r="B668" s="3" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="D668" s="4" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="E668" s="3" t="s">
         <v>177</v>
@@ -24847,10 +24847,10 @@
         <v>2118</v>
       </c>
       <c r="B669" s="3" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="D669" s="4" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="E669" s="3" t="s">
         <v>177</v>
@@ -24861,10 +24861,10 @@
         <v>2118</v>
       </c>
       <c r="B670" s="3" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="D670" s="4" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="E670" s="3" t="s">
         <v>177</v>
@@ -24875,10 +24875,10 @@
         <v>2118</v>
       </c>
       <c r="B671" s="3" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="D671" s="4" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="E671" s="3" t="s">
         <v>177</v>
@@ -24889,10 +24889,10 @@
         <v>2118</v>
       </c>
       <c r="B672" s="3" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="D672" s="4" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="E672" s="3" t="s">
         <v>177</v>
@@ -24903,10 +24903,10 @@
         <v>2118</v>
       </c>
       <c r="B673" s="3" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="D673" s="4" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="E673" s="3" t="s">
         <v>177</v>
@@ -24917,10 +24917,10 @@
         <v>2118</v>
       </c>
       <c r="B674" s="3" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="D674" s="4" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="E674" s="3" t="s">
         <v>177</v>
@@ -24931,10 +24931,10 @@
         <v>2118</v>
       </c>
       <c r="B675" s="3" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="D675" s="4" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="E675" s="3" t="s">
         <v>177</v>
@@ -24945,10 +24945,10 @@
         <v>2118</v>
       </c>
       <c r="B676" s="3" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="D676" s="4" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="E676" s="3" t="s">
         <v>177</v>
@@ -24959,10 +24959,10 @@
         <v>2118</v>
       </c>
       <c r="B677" s="3" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="D677" s="4" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="E677" s="3" t="s">
         <v>177</v>
@@ -24973,10 +24973,10 @@
         <v>2118</v>
       </c>
       <c r="B678" s="3" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="D678" s="4" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="E678" s="3" t="s">
         <v>177</v>
@@ -24987,10 +24987,10 @@
         <v>2118</v>
       </c>
       <c r="B679" s="3" t="s">
+        <v>2850</v>
+      </c>
+      <c r="D679" s="4" t="s">
         <v>2851</v>
-      </c>
-      <c r="D679" s="4" t="s">
-        <v>2852</v>
       </c>
       <c r="E679" s="3" t="s">
         <v>177</v>
@@ -25449,10 +25449,10 @@
         <v>2118</v>
       </c>
       <c r="B712" s="3" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="D712" s="4" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="E712" s="3" t="s">
         <v>177</v>
@@ -25463,10 +25463,10 @@
         <v>2118</v>
       </c>
       <c r="B713" s="3" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="D713" s="4" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="E713" s="3" t="s">
         <v>177</v>
@@ -25477,10 +25477,10 @@
         <v>2118</v>
       </c>
       <c r="B714" s="3" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="D714" s="4" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="E714" s="3" t="s">
         <v>177</v>
@@ -25491,10 +25491,10 @@
         <v>2118</v>
       </c>
       <c r="B715" s="3" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="D715" s="4" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="E715" s="3" t="s">
         <v>177</v>
@@ -25505,10 +25505,10 @@
         <v>2118</v>
       </c>
       <c r="B716" s="3" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="D716" s="4" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="E716" s="3" t="s">
         <v>177</v>
@@ -25519,10 +25519,10 @@
         <v>2118</v>
       </c>
       <c r="B717" s="3" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="D717" s="4" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="E717" s="3" t="s">
         <v>177</v>
@@ -26485,10 +26485,10 @@
         <v>319</v>
       </c>
       <c r="B786" s="3" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="D786" s="4" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="E786" t="s">
         <v>177</v>
@@ -26499,10 +26499,10 @@
         <v>319</v>
       </c>
       <c r="B787" s="3" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="D787" s="4" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="E787" t="s">
         <v>177</v>
@@ -26513,10 +26513,10 @@
         <v>319</v>
       </c>
       <c r="B788" s="3" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="D788" s="4" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="E788" t="s">
         <v>177</v>
@@ -27381,10 +27381,10 @@
         <v>312</v>
       </c>
       <c r="B850" s="3" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="D850" s="4" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="E850" s="3" t="s">
         <v>177</v>
@@ -27395,10 +27395,10 @@
         <v>312</v>
       </c>
       <c r="B851" s="3" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="D851" s="4" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="E851" s="3" t="s">
         <v>177</v>
@@ -27409,10 +27409,10 @@
         <v>312</v>
       </c>
       <c r="B852" s="3" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="D852" s="4" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="E852" s="3" t="s">
         <v>177</v>
@@ -27423,10 +27423,10 @@
         <v>312</v>
       </c>
       <c r="B853" s="3" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="D853" s="4" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="E853" s="3" t="s">
         <v>177</v>
@@ -27437,10 +27437,10 @@
         <v>312</v>
       </c>
       <c r="B854" s="3" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="D854" s="4" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="E854" s="3" t="s">
         <v>177</v>
@@ -27451,10 +27451,10 @@
         <v>312</v>
       </c>
       <c r="B855" s="3" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="D855" s="4" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="E855" s="3" t="s">
         <v>177</v>
@@ -27465,10 +27465,10 @@
         <v>312</v>
       </c>
       <c r="B856" s="3" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="D856" s="4" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="E856" s="3" t="s">
         <v>177</v>
@@ -27479,10 +27479,10 @@
         <v>312</v>
       </c>
       <c r="B857" s="3" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="D857" s="4" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="E857" s="3" t="s">
         <v>177</v>
@@ -27493,10 +27493,10 @@
         <v>312</v>
       </c>
       <c r="B858" s="3" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="D858" s="4" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="E858" s="3" t="s">
         <v>177</v>
@@ -27507,10 +27507,10 @@
         <v>312</v>
       </c>
       <c r="B859" s="3" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="D859" s="4" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="E859" s="3" t="s">
         <v>177</v>
@@ -27521,10 +27521,10 @@
         <v>312</v>
       </c>
       <c r="B860" s="3" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="D860" s="4" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="E860" s="3" t="s">
         <v>177</v>
@@ -27535,10 +27535,10 @@
         <v>312</v>
       </c>
       <c r="B861" s="3" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="D861" s="4" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
       <c r="E861" s="3" t="s">
         <v>177</v>
@@ -27549,10 +27549,10 @@
         <v>312</v>
       </c>
       <c r="B862" s="3" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="D862" s="4" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="E862" s="3" t="s">
         <v>177</v>
@@ -27563,10 +27563,10 @@
         <v>312</v>
       </c>
       <c r="B863" s="3" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="D863" s="4" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="E863" s="3" t="s">
         <v>177</v>
@@ -27577,10 +27577,10 @@
         <v>312</v>
       </c>
       <c r="B864" s="3" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="D864" s="4" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="E864" s="3" t="s">
         <v>177</v>
@@ -27591,10 +27591,10 @@
         <v>312</v>
       </c>
       <c r="B865" s="3" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="D865" s="4" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="E865" s="3" t="s">
         <v>177</v>
@@ -28361,10 +28361,10 @@
         <v>1846</v>
       </c>
       <c r="B920" s="3" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="D920" s="4" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="E920" s="3" t="s">
         <v>177</v>
@@ -28375,10 +28375,10 @@
         <v>1846</v>
       </c>
       <c r="B921" s="3" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="D921" s="4" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="E921" s="3" t="s">
         <v>177</v>
@@ -28389,10 +28389,10 @@
         <v>1846</v>
       </c>
       <c r="B922" s="3" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="D922" s="4" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="E922" s="3" t="s">
         <v>177</v>
@@ -28403,10 +28403,10 @@
         <v>1846</v>
       </c>
       <c r="B923" s="3" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="D923" s="4" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="E923" s="3" t="s">
         <v>177</v>
@@ -28417,10 +28417,10 @@
         <v>1846</v>
       </c>
       <c r="B924" s="3" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="D924" s="4" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="E924" s="3" t="s">
         <v>177</v>
@@ -28431,10 +28431,10 @@
         <v>1846</v>
       </c>
       <c r="B925" s="3" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="D925" s="4" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="E925" s="3" t="s">
         <v>177</v>
@@ -28445,10 +28445,10 @@
         <v>1846</v>
       </c>
       <c r="B926" s="3" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="D926" s="4" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="E926" s="3" t="s">
         <v>177</v>
@@ -28459,10 +28459,10 @@
         <v>1846</v>
       </c>
       <c r="B927" s="3" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="D927" s="4" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="E927" s="3" t="s">
         <v>177</v>
@@ -28599,10 +28599,10 @@
         <v>1846</v>
       </c>
       <c r="B937" s="3" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="D937" s="4" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="E937" s="3" t="s">
         <v>177</v>
@@ -28613,10 +28613,10 @@
         <v>1846</v>
       </c>
       <c r="B938" s="3" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="D938" s="4" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="E938" s="3" t="s">
         <v>177</v>
@@ -28627,10 +28627,10 @@
         <v>1846</v>
       </c>
       <c r="B939" s="3" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="D939" s="4" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="E939" s="3" t="s">
         <v>177</v>
@@ -28641,10 +28641,10 @@
         <v>1846</v>
       </c>
       <c r="B940" s="3" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="D940" s="4" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="E940" s="3" t="s">
         <v>177</v>
@@ -28655,10 +28655,10 @@
         <v>1846</v>
       </c>
       <c r="B941" s="3" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="D941" s="4" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="E941" s="3" t="s">
         <v>177</v>
@@ -28669,10 +28669,10 @@
         <v>1846</v>
       </c>
       <c r="B942" s="3" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="D942" s="4" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="E942" s="3" t="s">
         <v>177</v>
@@ -28683,10 +28683,10 @@
         <v>1846</v>
       </c>
       <c r="B943" s="3" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="D943" s="4" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="E943" s="3" t="s">
         <v>177</v>
@@ -28697,10 +28697,10 @@
         <v>1846</v>
       </c>
       <c r="B944" s="3" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="D944" s="4" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="E944" s="3" t="s">
         <v>177</v>
@@ -28711,10 +28711,10 @@
         <v>1846</v>
       </c>
       <c r="B945" s="3" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="D945" s="4" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="E945" s="3" t="s">
         <v>177</v>
@@ -28725,10 +28725,10 @@
         <v>1846</v>
       </c>
       <c r="B946" s="3" t="s">
+        <v>2807</v>
+      </c>
+      <c r="D946" s="4" t="s">
         <v>2808</v>
-      </c>
-      <c r="D946" s="4" t="s">
-        <v>2809</v>
       </c>
       <c r="E946" s="3" t="s">
         <v>177</v>
@@ -28921,10 +28921,10 @@
         <v>1846</v>
       </c>
       <c r="B960" s="3" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="D960" s="4" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="E960" s="3" t="s">
         <v>177</v>
@@ -28935,10 +28935,10 @@
         <v>1846</v>
       </c>
       <c r="B961" s="3" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="D961" s="4" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="E961" s="3" t="s">
         <v>177</v>
@@ -28949,10 +28949,10 @@
         <v>1846</v>
       </c>
       <c r="B962" s="3" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="D962" s="4" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="E962" s="3" t="s">
         <v>177</v>
@@ -28963,10 +28963,10 @@
         <v>1846</v>
       </c>
       <c r="B963" s="3" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="D963" s="4" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="E963" s="3" t="s">
         <v>177</v>
@@ -28977,10 +28977,10 @@
         <v>1846</v>
       </c>
       <c r="B964" s="3" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="D964" s="4" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="E964" s="3" t="s">
         <v>177</v>
@@ -30962,8 +30962,8 @@
   <dimension ref="A1:E1984"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A639" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C704" sqref="C704"/>
+      <pane ySplit="1" topLeftCell="A948" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C987" sqref="C987"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -37358,7 +37358,7 @@
         <v>1841</v>
       </c>
       <c r="C549" s="23" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="D549" s="19" t="s">
         <v>1843</v>
@@ -37372,7 +37372,7 @@
         <v>1841</v>
       </c>
       <c r="C550" s="23" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="D550" s="19"/>
     </row>
@@ -37384,7 +37384,7 @@
         <v>1841</v>
       </c>
       <c r="C551" s="23" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="D551" s="19"/>
     </row>
@@ -37396,7 +37396,7 @@
         <v>1841</v>
       </c>
       <c r="C552" s="23" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="D552" s="19"/>
     </row>
@@ -37408,7 +37408,7 @@
         <v>1841</v>
       </c>
       <c r="C553" s="23" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="D553" s="19"/>
     </row>
@@ -39183,7 +39183,7 @@
         <v>990</v>
       </c>
       <c r="C705" s="20" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.45">
@@ -39290,7 +39290,7 @@
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A715" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B715" s="3" t="s">
         <v>992</v>
@@ -39304,7 +39304,7 @@
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A716" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B716" s="3" t="s">
         <v>992</v>
@@ -39315,7 +39315,7 @@
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A717" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B717" s="3" t="s">
         <v>992</v>
@@ -39326,7 +39326,7 @@
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A718" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B718" s="3" t="s">
         <v>992</v>
@@ -39337,7 +39337,7 @@
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A719" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B719" s="3" t="s">
         <v>993</v>
@@ -39351,7 +39351,7 @@
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A720" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B720" s="3" t="s">
         <v>993</v>
@@ -39362,7 +39362,7 @@
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A721" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B721" s="3" t="s">
         <v>993</v>
@@ -39373,7 +39373,7 @@
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A722" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B722" s="3" t="s">
         <v>993</v>
@@ -39384,7 +39384,7 @@
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A723" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B723" s="3" t="s">
         <v>994</v>
@@ -39398,7 +39398,7 @@
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A724" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B724" s="3" t="s">
         <v>994</v>
@@ -39409,7 +39409,7 @@
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A725" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B725" s="3" t="s">
         <v>994</v>
@@ -39420,7 +39420,7 @@
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A726" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B726" s="3" t="s">
         <v>994</v>
@@ -39431,7 +39431,7 @@
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A727" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B727" s="3" t="s">
         <v>995</v>
@@ -39445,7 +39445,7 @@
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A728" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B728" s="3" t="s">
         <v>995</v>
@@ -39456,7 +39456,7 @@
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A729" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B729" s="3" t="s">
         <v>995</v>
@@ -39467,7 +39467,7 @@
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A730" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B730" s="3" t="s">
         <v>995</v>
@@ -39478,7 +39478,7 @@
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A731" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B731" s="3" t="s">
         <v>996</v>
@@ -39492,7 +39492,7 @@
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A732" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B732" s="3" t="s">
         <v>996</v>
@@ -39503,7 +39503,7 @@
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A733" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B733" s="3" t="s">
         <v>996</v>
@@ -39514,7 +39514,7 @@
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A734" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B734" s="3" t="s">
         <v>996</v>
@@ -42016,7 +42016,7 @@
         <v>2329</v>
       </c>
       <c r="D946" s="3" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="947" spans="1:4" x14ac:dyDescent="0.45">
@@ -42027,7 +42027,7 @@
         <v>1100</v>
       </c>
       <c r="C947" s="20" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="D947" s="3"/>
     </row>
@@ -42051,7 +42051,7 @@
         <v>1100</v>
       </c>
       <c r="C949" s="20" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="D949" s="3"/>
     </row>
@@ -42078,7 +42078,7 @@
         <v>2329</v>
       </c>
       <c r="D951" s="3" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="952" spans="1:4" x14ac:dyDescent="0.45">
@@ -42089,7 +42089,7 @@
         <v>1101</v>
       </c>
       <c r="C952" s="20" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="D952" s="3"/>
     </row>
@@ -42113,7 +42113,7 @@
         <v>1101</v>
       </c>
       <c r="C954" s="20" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="D954" s="3"/>
     </row>
@@ -42140,7 +42140,7 @@
         <v>2329</v>
       </c>
       <c r="D956" s="3" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="957" spans="1:4" x14ac:dyDescent="0.45">
@@ -42151,7 +42151,7 @@
         <v>1102</v>
       </c>
       <c r="C957" s="20" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="D957" s="3"/>
     </row>
@@ -42175,7 +42175,7 @@
         <v>1102</v>
       </c>
       <c r="C959" s="20" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="D959" s="3"/>
     </row>
@@ -42202,7 +42202,7 @@
         <v>2329</v>
       </c>
       <c r="D961" s="3" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="962" spans="1:4" x14ac:dyDescent="0.45">
@@ -42213,7 +42213,7 @@
         <v>1103</v>
       </c>
       <c r="C962" s="20" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="D962" s="3"/>
     </row>
@@ -42237,7 +42237,7 @@
         <v>1103</v>
       </c>
       <c r="C964" s="20" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="D964" s="3"/>
     </row>
@@ -42264,7 +42264,7 @@
         <v>2329</v>
       </c>
       <c r="D966" s="3" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="967" spans="1:4" x14ac:dyDescent="0.45">
@@ -42275,7 +42275,7 @@
         <v>1104</v>
       </c>
       <c r="C967" s="20" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="D967" s="3"/>
     </row>
@@ -42299,7 +42299,7 @@
         <v>1104</v>
       </c>
       <c r="C969" s="20" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="D969" s="3"/>
     </row>
@@ -42326,7 +42326,7 @@
         <v>2329</v>
       </c>
       <c r="D971" s="3" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="972" spans="1:4" x14ac:dyDescent="0.45">
@@ -42337,7 +42337,7 @@
         <v>1105</v>
       </c>
       <c r="C972" s="20" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="D972" s="3"/>
     </row>
@@ -42361,7 +42361,7 @@
         <v>1105</v>
       </c>
       <c r="C974" s="20" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="D974" s="3"/>
     </row>
@@ -42509,7 +42509,7 @@
         <v>1110</v>
       </c>
       <c r="C986" s="20" t="s">
-        <v>2363</v>
+        <v>3000</v>
       </c>
       <c r="D986" s="3" t="s">
         <v>1836</v>
@@ -42523,7 +42523,7 @@
         <v>1110</v>
       </c>
       <c r="C987" s="20" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="D987" s="3"/>
     </row>
@@ -42535,7 +42535,7 @@
         <v>1110</v>
       </c>
       <c r="C988" s="20" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="D988" s="3"/>
     </row>
@@ -42547,7 +42547,7 @@
         <v>1110</v>
       </c>
       <c r="C989" s="20" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="D989" s="3"/>
     </row>
@@ -42559,7 +42559,7 @@
         <v>1110</v>
       </c>
       <c r="C990" s="20" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="D990" s="3"/>
     </row>
@@ -42659,7 +42659,7 @@
         <v>1113</v>
       </c>
       <c r="C998" s="20" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="D998" s="3"/>
     </row>
@@ -42683,7 +42683,7 @@
         <v>1113</v>
       </c>
       <c r="C1000" s="20" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="D1000" s="3"/>
     </row>
@@ -42721,7 +42721,7 @@
         <v>1114</v>
       </c>
       <c r="C1003" s="20" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="D1003" s="3"/>
     </row>
@@ -42745,7 +42745,7 @@
         <v>1114</v>
       </c>
       <c r="C1005" s="20" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="D1005" s="3"/>
     </row>
@@ -42783,7 +42783,7 @@
         <v>1115</v>
       </c>
       <c r="C1008" s="20" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="D1008" s="3"/>
     </row>
@@ -42807,7 +42807,7 @@
         <v>1115</v>
       </c>
       <c r="C1010" s="20" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="D1010" s="3"/>
     </row>
@@ -42845,7 +42845,7 @@
         <v>1116</v>
       </c>
       <c r="C1013" s="20" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="D1013" s="3"/>
     </row>
@@ -42869,7 +42869,7 @@
         <v>1116</v>
       </c>
       <c r="C1015" s="20" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="D1015" s="3"/>
     </row>
@@ -42907,7 +42907,7 @@
         <v>1117</v>
       </c>
       <c r="C1018" s="20" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="D1018" s="3"/>
     </row>
@@ -42931,7 +42931,7 @@
         <v>1117</v>
       </c>
       <c r="C1020" s="20" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="D1020" s="3"/>
     </row>
@@ -42969,7 +42969,7 @@
         <v>1118</v>
       </c>
       <c r="C1023" s="20" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="D1023" s="3"/>
     </row>
@@ -42993,7 +42993,7 @@
         <v>1118</v>
       </c>
       <c r="C1025" s="20" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="D1025" s="3"/>
     </row>
@@ -43031,7 +43031,7 @@
         <v>1119</v>
       </c>
       <c r="C1028" s="20" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="D1028" s="3"/>
     </row>
@@ -43055,7 +43055,7 @@
         <v>1119</v>
       </c>
       <c r="C1030" s="20" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="D1030" s="3"/>
     </row>
@@ -43093,7 +43093,7 @@
         <v>1120</v>
       </c>
       <c r="C1033" s="20" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="D1033" s="3"/>
     </row>
@@ -43117,7 +43117,7 @@
         <v>1120</v>
       </c>
       <c r="C1035" s="20" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="D1035" s="3"/>
     </row>
@@ -43155,7 +43155,7 @@
         <v>1121</v>
       </c>
       <c r="C1038" s="20" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="D1038" s="3"/>
     </row>
@@ -43179,7 +43179,7 @@
         <v>1121</v>
       </c>
       <c r="C1040" s="20" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="D1040" s="3"/>
     </row>
@@ -43217,7 +43217,7 @@
         <v>1122</v>
       </c>
       <c r="C1043" s="20" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="D1043" s="3"/>
     </row>
@@ -43241,7 +43241,7 @@
         <v>1122</v>
       </c>
       <c r="C1045" s="20" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="D1045" s="3"/>
     </row>
@@ -43279,7 +43279,7 @@
         <v>1123</v>
       </c>
       <c r="C1048" s="20" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="D1048" s="3"/>
     </row>
@@ -43303,7 +43303,7 @@
         <v>1123</v>
       </c>
       <c r="C1050" s="20" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="D1050" s="3"/>
     </row>
@@ -43341,7 +43341,7 @@
         <v>1124</v>
       </c>
       <c r="C1053" s="20" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="D1053" s="3"/>
     </row>
@@ -43365,7 +43365,7 @@
         <v>1124</v>
       </c>
       <c r="C1055" s="20" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="D1055" s="3"/>
     </row>
@@ -43415,7 +43415,7 @@
         <v>1132</v>
       </c>
       <c r="C1059" s="20" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D1059" s="3"/>
     </row>
@@ -43501,7 +43501,7 @@
         <v>1140</v>
       </c>
       <c r="C1066" s="20" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D1066" s="3"/>
     </row>
@@ -43587,7 +43587,7 @@
         <v>1141</v>
       </c>
       <c r="C1073" s="20" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D1073" s="3"/>
     </row>
@@ -43673,7 +43673,7 @@
         <v>1142</v>
       </c>
       <c r="C1080" s="20" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D1080" s="3"/>
     </row>
@@ -43759,7 +43759,7 @@
         <v>1143</v>
       </c>
       <c r="C1087" s="20" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D1087" s="3"/>
     </row>
@@ -43845,7 +43845,7 @@
         <v>1144</v>
       </c>
       <c r="C1094" s="20" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D1094" s="3"/>
     </row>
@@ -43931,7 +43931,7 @@
         <v>1145</v>
       </c>
       <c r="C1101" s="20" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D1101" s="3"/>
     </row>
@@ -44017,7 +44017,7 @@
         <v>1146</v>
       </c>
       <c r="C1108" s="20" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D1108" s="3"/>
     </row>
@@ -44103,7 +44103,7 @@
         <v>1147</v>
       </c>
       <c r="C1115" s="20" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D1115" s="3"/>
     </row>
@@ -44189,7 +44189,7 @@
         <v>1148</v>
       </c>
       <c r="C1122" s="20" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D1122" s="3"/>
     </row>
@@ -44275,7 +44275,7 @@
         <v>1149</v>
       </c>
       <c r="C1129" s="20" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D1129" s="3"/>
     </row>
@@ -44361,7 +44361,7 @@
         <v>1150</v>
       </c>
       <c r="C1136" s="20" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D1136" s="3"/>
     </row>
@@ -44447,7 +44447,7 @@
         <v>1151</v>
       </c>
       <c r="C1143" s="20" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D1143" s="3"/>
     </row>
@@ -44533,7 +44533,7 @@
         <v>1152</v>
       </c>
       <c r="C1150" s="20" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D1150" s="3"/>
     </row>
@@ -44619,7 +44619,7 @@
         <v>1153</v>
       </c>
       <c r="C1157" s="20" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D1157" s="3"/>
     </row>
@@ -44705,7 +44705,7 @@
         <v>1154</v>
       </c>
       <c r="C1164" s="20" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D1164" s="3"/>
     </row>
@@ -44791,7 +44791,7 @@
         <v>1155</v>
       </c>
       <c r="C1171" s="20" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D1171" s="3"/>
     </row>
@@ -44877,7 +44877,7 @@
         <v>1156</v>
       </c>
       <c r="C1178" s="20" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D1178" s="3"/>
     </row>
@@ -44951,7 +44951,7 @@
         <v>448</v>
       </c>
       <c r="C1184" s="20" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="D1184" s="3"/>
     </row>
@@ -44963,7 +44963,7 @@
         <v>448</v>
       </c>
       <c r="C1185" s="20" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="D1185" s="3"/>
     </row>
@@ -44975,7 +44975,7 @@
         <v>448</v>
       </c>
       <c r="C1186" s="20" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="D1186" s="3"/>
     </row>
@@ -44987,7 +44987,7 @@
         <v>448</v>
       </c>
       <c r="C1187" s="20" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="D1187" s="3"/>
     </row>
@@ -44999,7 +44999,7 @@
         <v>448</v>
       </c>
       <c r="C1188" s="20" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="D1188" s="3"/>
     </row>
@@ -45011,7 +45011,7 @@
         <v>448</v>
       </c>
       <c r="C1189" s="20" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="D1189" s="3"/>
     </row>
@@ -45219,7 +45219,7 @@
         <v>459</v>
       </c>
       <c r="C1206" s="20" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="D1206" s="3"/>
     </row>
@@ -45245,7 +45245,7 @@
         <v>1230</v>
       </c>
       <c r="C1208" s="20" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="D1208" s="3"/>
     </row>
@@ -45257,7 +45257,7 @@
         <v>1230</v>
       </c>
       <c r="C1209" s="20" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="D1209" s="3"/>
     </row>
@@ -45269,7 +45269,7 @@
         <v>1230</v>
       </c>
       <c r="C1210" s="20" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="D1210" s="3"/>
     </row>
@@ -45295,7 +45295,7 @@
         <v>1231</v>
       </c>
       <c r="C1212" s="20" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="D1212" s="3"/>
     </row>
@@ -45307,7 +45307,7 @@
         <v>1231</v>
       </c>
       <c r="C1213" s="20" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="D1213" s="3"/>
     </row>
@@ -45319,7 +45319,7 @@
         <v>1231</v>
       </c>
       <c r="C1214" s="20" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="D1214" s="3"/>
     </row>
@@ -45733,7 +45733,7 @@
         <v>1239</v>
       </c>
       <c r="C1248" s="20" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="D1248" s="3" t="s">
         <v>2113</v>
@@ -45747,7 +45747,7 @@
         <v>1239</v>
       </c>
       <c r="C1249" s="20" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="D1249" s="3"/>
     </row>
@@ -45759,7 +45759,7 @@
         <v>1239</v>
       </c>
       <c r="C1250" s="20" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="D1250" s="3"/>
     </row>
@@ -45771,7 +45771,7 @@
         <v>1239</v>
       </c>
       <c r="C1251" s="20" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="D1251" s="3"/>
     </row>
@@ -45783,7 +45783,7 @@
         <v>1239</v>
       </c>
       <c r="C1252" s="20" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="D1252" s="3"/>
     </row>
@@ -45795,7 +45795,7 @@
         <v>1239</v>
       </c>
       <c r="C1253" s="20" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="D1253" s="3"/>
     </row>
@@ -45807,7 +45807,7 @@
         <v>1239</v>
       </c>
       <c r="C1254" s="20" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="D1254" s="3"/>
     </row>
@@ -45819,7 +45819,7 @@
         <v>1239</v>
       </c>
       <c r="C1255" s="20" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="D1255" s="3"/>
     </row>
@@ -45831,7 +45831,7 @@
         <v>1239</v>
       </c>
       <c r="C1256" s="20" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="D1256" s="3"/>
     </row>
@@ -45843,7 +45843,7 @@
         <v>1239</v>
       </c>
       <c r="C1257" s="20" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="D1257" s="3"/>
     </row>
@@ -45855,7 +45855,7 @@
         <v>1239</v>
       </c>
       <c r="C1258" s="20" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="D1258" s="3"/>
     </row>
@@ -45867,7 +45867,7 @@
         <v>1239</v>
       </c>
       <c r="C1259" s="20" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="D1259" s="3"/>
     </row>
@@ -45879,7 +45879,7 @@
         <v>1239</v>
       </c>
       <c r="C1260" s="20" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="D1260" s="3"/>
     </row>
@@ -45891,7 +45891,7 @@
         <v>1239</v>
       </c>
       <c r="C1261" s="20" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="D1261" s="3"/>
     </row>
@@ -45903,7 +45903,7 @@
         <v>1239</v>
       </c>
       <c r="C1262" s="20" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="D1262" s="3"/>
     </row>
@@ -45915,7 +45915,7 @@
         <v>1239</v>
       </c>
       <c r="C1263" s="20" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="D1263" s="3"/>
     </row>
@@ -45927,7 +45927,7 @@
         <v>1239</v>
       </c>
       <c r="C1264" s="20" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="D1264" s="3"/>
     </row>
@@ -45939,7 +45939,7 @@
         <v>1239</v>
       </c>
       <c r="C1265" s="20" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="D1265" s="3"/>
     </row>
@@ -45951,7 +45951,7 @@
         <v>1239</v>
       </c>
       <c r="C1266" s="20" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="D1266" s="3"/>
     </row>
@@ -45963,7 +45963,7 @@
         <v>1239</v>
       </c>
       <c r="C1267" s="20" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="D1267" s="3"/>
     </row>
@@ -45975,7 +45975,7 @@
         <v>1239</v>
       </c>
       <c r="C1268" s="20" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="D1268" s="3"/>
     </row>
@@ -45987,7 +45987,7 @@
         <v>1239</v>
       </c>
       <c r="C1269" s="20" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="D1269" s="3"/>
     </row>
@@ -45999,7 +45999,7 @@
         <v>1239</v>
       </c>
       <c r="C1270" s="20" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="D1270" s="3"/>
     </row>
@@ -46011,7 +46011,7 @@
         <v>1239</v>
       </c>
       <c r="C1271" s="20" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="D1271" s="3"/>
     </row>
@@ -46023,7 +46023,7 @@
         <v>1239</v>
       </c>
       <c r="C1272" s="20" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="D1272" s="3"/>
     </row>
@@ -46035,7 +46035,7 @@
         <v>1239</v>
       </c>
       <c r="C1273" s="20" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="D1273" s="3"/>
     </row>
@@ -46047,7 +46047,7 @@
         <v>1239</v>
       </c>
       <c r="C1274" s="20" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="D1274" s="3"/>
     </row>
@@ -46059,7 +46059,7 @@
         <v>1239</v>
       </c>
       <c r="C1275" s="20" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="D1275" s="3"/>
     </row>
@@ -46071,7 +46071,7 @@
         <v>1239</v>
       </c>
       <c r="C1276" s="20" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="D1276" s="3"/>
     </row>
@@ -46083,7 +46083,7 @@
         <v>1239</v>
       </c>
       <c r="C1277" s="20" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="D1277" s="3"/>
     </row>
@@ -46095,7 +46095,7 @@
         <v>1239</v>
       </c>
       <c r="C1278" s="20" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="D1278" s="3"/>
     </row>
@@ -46107,7 +46107,7 @@
         <v>1239</v>
       </c>
       <c r="C1279" s="20" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="D1279" s="3"/>
     </row>
@@ -46119,7 +46119,7 @@
         <v>1239</v>
       </c>
       <c r="C1280" s="20" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="D1280" s="3"/>
     </row>
@@ -46131,7 +46131,7 @@
         <v>1239</v>
       </c>
       <c r="C1281" s="20" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="D1281" s="3"/>
     </row>
@@ -46143,7 +46143,7 @@
         <v>1239</v>
       </c>
       <c r="C1282" s="20" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="D1282" s="3"/>
     </row>
@@ -46155,7 +46155,7 @@
         <v>1239</v>
       </c>
       <c r="C1283" s="20" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="D1283" s="3"/>
     </row>
@@ -46167,7 +46167,7 @@
         <v>1284</v>
       </c>
       <c r="C1284" s="20" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="D1284" s="3" t="s">
         <v>2114</v>
@@ -46181,7 +46181,7 @@
         <v>1284</v>
       </c>
       <c r="C1285" s="20" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="D1285" s="3"/>
     </row>
@@ -46193,7 +46193,7 @@
         <v>1284</v>
       </c>
       <c r="C1286" s="20" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="D1286" s="3"/>
     </row>
@@ -46205,7 +46205,7 @@
         <v>1284</v>
       </c>
       <c r="C1287" s="20" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="D1287" s="3"/>
     </row>
@@ -46217,7 +46217,7 @@
         <v>1284</v>
       </c>
       <c r="C1288" s="20" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="D1288" s="3"/>
     </row>
@@ -46229,7 +46229,7 @@
         <v>1284</v>
       </c>
       <c r="C1289" s="20" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="D1289" s="3"/>
     </row>
@@ -46241,7 +46241,7 @@
         <v>1284</v>
       </c>
       <c r="C1290" s="20" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="D1290" s="3"/>
     </row>
@@ -46253,7 +46253,7 @@
         <v>1285</v>
       </c>
       <c r="C1291" s="20" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="D1291" s="3" t="s">
         <v>2115</v>
@@ -46267,7 +46267,7 @@
         <v>1285</v>
       </c>
       <c r="C1292" s="20" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="D1292" s="3"/>
     </row>
@@ -46279,7 +46279,7 @@
         <v>1285</v>
       </c>
       <c r="C1293" s="20" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="D1293" s="3"/>
     </row>
@@ -46291,7 +46291,7 @@
         <v>1285</v>
       </c>
       <c r="C1294" s="20" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="D1294" s="3"/>
     </row>
@@ -46303,7 +46303,7 @@
         <v>1285</v>
       </c>
       <c r="C1295" s="20" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="D1295" s="3"/>
     </row>
@@ -46315,10 +46315,10 @@
         <v>1287</v>
       </c>
       <c r="C1296" s="20" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="D1296" s="3" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="1297" spans="1:4" x14ac:dyDescent="0.45">
@@ -46437,7 +46437,7 @@
         <v>1287</v>
       </c>
       <c r="C1306" s="20" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="D1306" s="3"/>
     </row>
@@ -46449,10 +46449,10 @@
         <v>1288</v>
       </c>
       <c r="C1307" s="20" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="D1307" s="3" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="1308" spans="1:4" x14ac:dyDescent="0.45">
@@ -46571,7 +46571,7 @@
         <v>1288</v>
       </c>
       <c r="C1317" s="20" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="D1317" s="3"/>
     </row>
@@ -46583,10 +46583,10 @@
         <v>1289</v>
       </c>
       <c r="C1318" s="20" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="D1318" s="3" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="1319" spans="1:4" x14ac:dyDescent="0.45">
@@ -46705,7 +46705,7 @@
         <v>1289</v>
       </c>
       <c r="C1328" s="20" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="D1328" s="3"/>
     </row>
@@ -46717,10 +46717,10 @@
         <v>1290</v>
       </c>
       <c r="C1329" s="20" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="D1329" s="3" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="1330" spans="1:4" x14ac:dyDescent="0.45">
@@ -46839,7 +46839,7 @@
         <v>1290</v>
       </c>
       <c r="C1339" s="20" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="D1339" s="3"/>
     </row>
@@ -46851,7 +46851,7 @@
         <v>1292</v>
       </c>
       <c r="C1340" s="20" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="D1340" s="3" t="s">
         <v>2116</v>
@@ -46865,7 +46865,7 @@
         <v>1292</v>
       </c>
       <c r="C1341" s="20" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="D1341" s="3"/>
     </row>
@@ -46877,7 +46877,7 @@
         <v>1292</v>
       </c>
       <c r="C1342" s="20" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="D1342" s="3"/>
     </row>
@@ -46889,7 +46889,7 @@
         <v>1292</v>
       </c>
       <c r="C1343" s="20" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="D1343" s="3"/>
     </row>
@@ -46901,7 +46901,7 @@
         <v>1292</v>
       </c>
       <c r="C1344" s="20" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="D1344" s="3"/>
     </row>
@@ -46913,7 +46913,7 @@
         <v>1292</v>
       </c>
       <c r="C1345" s="20" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="D1345" s="3"/>
     </row>
@@ -46925,7 +46925,7 @@
         <v>1292</v>
       </c>
       <c r="C1346" s="20" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="D1346" s="3"/>
     </row>
@@ -46937,7 +46937,7 @@
         <v>1292</v>
       </c>
       <c r="C1347" s="20" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="D1347" s="3"/>
     </row>
@@ -46949,7 +46949,7 @@
         <v>1292</v>
       </c>
       <c r="C1348" s="20" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="D1348" s="3"/>
     </row>
@@ -46961,7 +46961,7 @@
         <v>1292</v>
       </c>
       <c r="C1349" s="20" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="D1349" s="3"/>
     </row>
@@ -46973,7 +46973,7 @@
         <v>1292</v>
       </c>
       <c r="C1350" s="20" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="D1350" s="3"/>
     </row>
@@ -46985,7 +46985,7 @@
         <v>1293</v>
       </c>
       <c r="C1351" s="20" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="D1351" s="3" t="s">
         <v>2117</v>
@@ -47107,7 +47107,7 @@
         <v>1293</v>
       </c>
       <c r="C1361" s="20" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="D1361" s="3"/>
     </row>
@@ -47119,7 +47119,7 @@
         <v>1294</v>
       </c>
       <c r="C1362" s="20" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="D1362" s="3" t="s">
         <v>2117</v>
@@ -47242,7 +47242,7 @@
         <v>1294</v>
       </c>
       <c r="C1372" s="20" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="E1372"/>
     </row>
@@ -47254,7 +47254,7 @@
         <v>1295</v>
       </c>
       <c r="C1373" s="20" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="D1373" s="3" t="s">
         <v>2117</v>
@@ -47377,7 +47377,7 @@
         <v>1295</v>
       </c>
       <c r="C1383" s="20" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="E1383"/>
     </row>
@@ -47389,7 +47389,7 @@
         <v>1296</v>
       </c>
       <c r="C1384" s="20" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="D1384" s="3" t="s">
         <v>2117</v>
@@ -47512,7 +47512,7 @@
         <v>1296</v>
       </c>
       <c r="C1394" s="20" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="E1394"/>
     </row>
@@ -47524,7 +47524,7 @@
         <v>1297</v>
       </c>
       <c r="C1395" s="20" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="D1395" s="3" t="s">
         <v>2117</v>
@@ -47647,7 +47647,7 @@
         <v>1297</v>
       </c>
       <c r="C1405" s="20" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="E1405"/>
     </row>
@@ -47659,7 +47659,7 @@
         <v>1298</v>
       </c>
       <c r="C1406" s="20" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="D1406" s="3" t="s">
         <v>2117</v>
@@ -47782,7 +47782,7 @@
         <v>1298</v>
       </c>
       <c r="C1416" s="20" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="E1416"/>
     </row>
@@ -47794,7 +47794,7 @@
         <v>1299</v>
       </c>
       <c r="C1417" s="20" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="D1417" s="3" t="s">
         <v>2117</v>
@@ -47917,7 +47917,7 @@
         <v>1299</v>
       </c>
       <c r="C1427" s="20" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="E1427"/>
     </row>
@@ -47929,7 +47929,7 @@
         <v>1300</v>
       </c>
       <c r="C1428" s="20" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="D1428" s="3" t="s">
         <v>2119</v>
@@ -48003,7 +48003,7 @@
         <v>1300</v>
       </c>
       <c r="C1434" s="20" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D1434" s="3"/>
     </row>
@@ -48039,7 +48039,7 @@
         <v>1300</v>
       </c>
       <c r="C1437" s="20" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="D1437" s="3"/>
     </row>
@@ -48291,7 +48291,7 @@
         <v>1300</v>
       </c>
       <c r="C1458" s="20" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="D1458" s="3"/>
     </row>
@@ -48637,7 +48637,7 @@
         <v>1345</v>
       </c>
       <c r="C1486" s="20" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="D1486" s="3" t="s">
         <v>2121</v>
@@ -48759,7 +48759,7 @@
         <v>1345</v>
       </c>
       <c r="C1496" s="20" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="D1496" s="3"/>
     </row>
@@ -48771,7 +48771,7 @@
         <v>1346</v>
       </c>
       <c r="C1497" s="20" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="D1497" s="3" t="s">
         <v>2115</v>
@@ -48785,7 +48785,7 @@
         <v>1346</v>
       </c>
       <c r="C1498" s="20" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="D1498" s="3"/>
     </row>
@@ -48797,7 +48797,7 @@
         <v>1346</v>
       </c>
       <c r="C1499" s="20" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="D1499" s="3"/>
     </row>
@@ -48809,7 +48809,7 @@
         <v>1346</v>
       </c>
       <c r="C1500" s="20" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="D1500" s="3"/>
     </row>
@@ -48821,7 +48821,7 @@
         <v>1346</v>
       </c>
       <c r="C1501" s="20" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="D1501" s="3"/>
     </row>
@@ -48833,7 +48833,7 @@
         <v>1347</v>
       </c>
       <c r="C1502" s="20" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="D1502" s="3" t="s">
         <v>2115</v>
@@ -48847,7 +48847,7 @@
         <v>1347</v>
       </c>
       <c r="C1503" s="20" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="D1503" s="3"/>
     </row>
@@ -48859,7 +48859,7 @@
         <v>1347</v>
       </c>
       <c r="C1504" s="20" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="D1504" s="3"/>
     </row>
@@ -48871,7 +48871,7 @@
         <v>1347</v>
       </c>
       <c r="C1505" s="20" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="D1505" s="3"/>
     </row>
@@ -48883,7 +48883,7 @@
         <v>1347</v>
       </c>
       <c r="C1506" s="20" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="D1506" s="3"/>
     </row>
@@ -48895,7 +48895,7 @@
         <v>1348</v>
       </c>
       <c r="C1507" s="20" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="D1507" s="3" t="s">
         <v>2115</v>
@@ -48909,7 +48909,7 @@
         <v>1348</v>
       </c>
       <c r="C1508" s="20" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="D1508" s="3"/>
     </row>
@@ -48921,7 +48921,7 @@
         <v>1348</v>
       </c>
       <c r="C1509" s="20" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="D1509" s="3"/>
     </row>
@@ -48933,7 +48933,7 @@
         <v>1348</v>
       </c>
       <c r="C1510" s="20" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="D1510" s="3"/>
     </row>
@@ -48945,7 +48945,7 @@
         <v>1348</v>
       </c>
       <c r="C1511" s="20" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="D1511" s="3"/>
     </row>
@@ -48957,7 +48957,7 @@
         <v>1349</v>
       </c>
       <c r="C1512" s="20" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="D1512" s="3" t="s">
         <v>2115</v>
@@ -48971,7 +48971,7 @@
         <v>1349</v>
       </c>
       <c r="C1513" s="20" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="D1513" s="3"/>
     </row>
@@ -48983,7 +48983,7 @@
         <v>1349</v>
       </c>
       <c r="C1514" s="20" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="D1514" s="3"/>
     </row>
@@ -48995,7 +48995,7 @@
         <v>1349</v>
       </c>
       <c r="C1515" s="20" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="D1515" s="3"/>
     </row>
@@ -49007,7 +49007,7 @@
         <v>1349</v>
       </c>
       <c r="C1516" s="20" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="D1516" s="3"/>
     </row>
@@ -49019,7 +49019,7 @@
         <v>1350</v>
       </c>
       <c r="C1517" s="20" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="D1517" s="3" t="s">
         <v>2115</v>
@@ -49033,7 +49033,7 @@
         <v>1350</v>
       </c>
       <c r="C1518" s="20" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="D1518" s="3"/>
     </row>
@@ -49045,7 +49045,7 @@
         <v>1350</v>
       </c>
       <c r="C1519" s="20" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="D1519" s="3"/>
     </row>
@@ -49057,7 +49057,7 @@
         <v>1350</v>
       </c>
       <c r="C1520" s="20" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="D1520" s="3"/>
     </row>
@@ -49069,7 +49069,7 @@
         <v>1350</v>
       </c>
       <c r="C1521" s="20" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="D1521" s="3"/>
     </row>
@@ -49131,7 +49131,7 @@
         <v>1468</v>
       </c>
       <c r="C1526" s="20" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="D1526" s="3"/>
     </row>
@@ -49193,7 +49193,7 @@
         <v>1469</v>
       </c>
       <c r="C1531" s="20" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="D1531" s="3"/>
     </row>
@@ -49255,7 +49255,7 @@
         <v>1470</v>
       </c>
       <c r="C1536" s="20" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="D1536" s="3"/>
     </row>
@@ -49317,7 +49317,7 @@
         <v>1471</v>
       </c>
       <c r="C1541" s="20" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="D1541" s="3"/>
     </row>
@@ -49459,7 +49459,7 @@
         <v>1489</v>
       </c>
       <c r="C1552" s="20" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="D1552" s="3" t="s">
         <v>2123</v>
@@ -49473,7 +49473,7 @@
         <v>1489</v>
       </c>
       <c r="C1553" s="20" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="D1553" s="3"/>
     </row>
@@ -49485,7 +49485,7 @@
         <v>1489</v>
       </c>
       <c r="C1554" s="20" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="D1554" s="3"/>
     </row>
@@ -49497,7 +49497,7 @@
         <v>1489</v>
       </c>
       <c r="C1555" s="20" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="D1555" s="3"/>
     </row>
@@ -49509,7 +49509,7 @@
         <v>1489</v>
       </c>
       <c r="C1556" s="20" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="D1556" s="3"/>
     </row>
@@ -49521,7 +49521,7 @@
         <v>1490</v>
       </c>
       <c r="C1557" s="20" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="D1557" s="3" t="s">
         <v>2123</v>
@@ -49535,7 +49535,7 @@
         <v>1490</v>
       </c>
       <c r="C1558" s="20" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="D1558" s="3"/>
     </row>
@@ -49547,7 +49547,7 @@
         <v>1490</v>
       </c>
       <c r="C1559" s="20" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="D1559" s="3"/>
     </row>
@@ -49559,7 +49559,7 @@
         <v>1490</v>
       </c>
       <c r="C1560" s="20" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="D1560" s="3"/>
     </row>
@@ -49571,7 +49571,7 @@
         <v>1490</v>
       </c>
       <c r="C1561" s="20" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="D1561" s="3"/>
     </row>
@@ -49609,7 +49609,7 @@
         <v>1491</v>
       </c>
       <c r="C1564" s="20" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="D1564" s="3"/>
     </row>
@@ -49621,7 +49621,7 @@
         <v>1492</v>
       </c>
       <c r="C1565" s="20" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="D1565" s="3" t="s">
         <v>2125</v>
@@ -49635,7 +49635,7 @@
         <v>1492</v>
       </c>
       <c r="C1566" s="20" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="D1566" s="3"/>
     </row>
@@ -49647,7 +49647,7 @@
         <v>1492</v>
       </c>
       <c r="C1567" s="20" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="D1567" s="3"/>
     </row>
@@ -49659,7 +49659,7 @@
         <v>1492</v>
       </c>
       <c r="C1568" s="20" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="D1568" s="3"/>
     </row>
@@ -49671,7 +49671,7 @@
         <v>1492</v>
       </c>
       <c r="C1569" s="20" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="D1569" s="3"/>
     </row>
@@ -49709,7 +49709,7 @@
         <v>1493</v>
       </c>
       <c r="C1572" s="20" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="D1572" s="3"/>
     </row>
@@ -49721,7 +49721,7 @@
         <v>1494</v>
       </c>
       <c r="C1573" s="20" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="D1573" s="3" t="s">
         <v>2125</v>
@@ -49735,7 +49735,7 @@
         <v>1494</v>
       </c>
       <c r="C1574" s="20" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="D1574" s="3"/>
     </row>
@@ -49747,7 +49747,7 @@
         <v>1494</v>
       </c>
       <c r="C1575" s="20" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="D1575" s="3"/>
     </row>
@@ -49759,7 +49759,7 @@
         <v>1494</v>
       </c>
       <c r="C1576" s="20" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="D1576" s="3"/>
     </row>
@@ -49771,7 +49771,7 @@
         <v>1494</v>
       </c>
       <c r="C1577" s="20" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="D1577" s="3"/>
     </row>
@@ -49809,7 +49809,7 @@
         <v>1495</v>
       </c>
       <c r="C1580" s="20" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="D1580" s="3"/>
     </row>
@@ -49821,7 +49821,7 @@
         <v>1496</v>
       </c>
       <c r="C1581" s="20" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="D1581" s="3" t="s">
         <v>2125</v>
@@ -49835,7 +49835,7 @@
         <v>1496</v>
       </c>
       <c r="C1582" s="20" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="D1582" s="3"/>
     </row>
@@ -49847,7 +49847,7 @@
         <v>1496</v>
       </c>
       <c r="C1583" s="20" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="D1583" s="3"/>
     </row>
@@ -49859,7 +49859,7 @@
         <v>1496</v>
       </c>
       <c r="C1584" s="20" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="D1584" s="3"/>
     </row>
@@ -49871,7 +49871,7 @@
         <v>1496</v>
       </c>
       <c r="C1585" s="20" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="D1585" s="3"/>
     </row>
@@ -49909,7 +49909,7 @@
         <v>1497</v>
       </c>
       <c r="C1588" s="20" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="D1588" s="3"/>
     </row>
@@ -49921,7 +49921,7 @@
         <v>1498</v>
       </c>
       <c r="C1589" s="20" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="D1589" s="3" t="s">
         <v>2125</v>
@@ -49935,7 +49935,7 @@
         <v>1498</v>
       </c>
       <c r="C1590" s="20" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="D1590" s="3"/>
     </row>
@@ -49947,7 +49947,7 @@
         <v>1498</v>
       </c>
       <c r="C1591" s="20" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="D1591" s="3"/>
     </row>
@@ -49959,7 +49959,7 @@
         <v>1498</v>
       </c>
       <c r="C1592" s="20" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="D1592" s="3"/>
     </row>
@@ -49971,7 +49971,7 @@
         <v>1498</v>
       </c>
       <c r="C1593" s="20" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="D1593" s="3"/>
     </row>
@@ -50009,7 +50009,7 @@
         <v>1499</v>
       </c>
       <c r="C1596" s="20" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="D1596" s="3"/>
     </row>
@@ -50021,7 +50021,7 @@
         <v>1500</v>
       </c>
       <c r="C1597" s="20" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="D1597" s="3" t="s">
         <v>2125</v>
@@ -50035,7 +50035,7 @@
         <v>1500</v>
       </c>
       <c r="C1598" s="20" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="D1598" s="3"/>
     </row>
@@ -50047,7 +50047,7 @@
         <v>1500</v>
       </c>
       <c r="C1599" s="20" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="D1599" s="3"/>
     </row>
@@ -50059,7 +50059,7 @@
         <v>1500</v>
       </c>
       <c r="C1600" s="20" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="D1600" s="3"/>
     </row>
@@ -50071,7 +50071,7 @@
         <v>1500</v>
       </c>
       <c r="C1601" s="20" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="D1601" s="3"/>
     </row>
@@ -50109,7 +50109,7 @@
         <v>1501</v>
       </c>
       <c r="C1604" s="20" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="D1604" s="3"/>
     </row>
@@ -50121,7 +50121,7 @@
         <v>1502</v>
       </c>
       <c r="C1605" s="20" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="D1605" s="3" t="s">
         <v>2125</v>
@@ -50135,7 +50135,7 @@
         <v>1502</v>
       </c>
       <c r="C1606" s="20" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="D1606" s="3"/>
     </row>
@@ -50147,7 +50147,7 @@
         <v>1502</v>
       </c>
       <c r="C1607" s="20" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="D1607" s="3"/>
     </row>
@@ -50159,7 +50159,7 @@
         <v>1502</v>
       </c>
       <c r="C1608" s="20" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="D1608" s="3"/>
     </row>
@@ -50171,7 +50171,7 @@
         <v>1502</v>
       </c>
       <c r="C1609" s="20" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="D1609" s="3"/>
     </row>
@@ -50183,7 +50183,7 @@
         <v>1503</v>
       </c>
       <c r="C1610" s="20" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="D1610" s="3" t="s">
         <v>2125</v>
@@ -50197,7 +50197,7 @@
         <v>1503</v>
       </c>
       <c r="C1611" s="20" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="D1611" s="3"/>
     </row>
@@ -50209,7 +50209,7 @@
         <v>1503</v>
       </c>
       <c r="C1612" s="20" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="D1612" s="3"/>
     </row>
@@ -50221,7 +50221,7 @@
         <v>1503</v>
       </c>
       <c r="C1613" s="20" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="D1613" s="3"/>
     </row>
@@ -50233,7 +50233,7 @@
         <v>1503</v>
       </c>
       <c r="C1614" s="20" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="D1614" s="3"/>
     </row>
@@ -50271,7 +50271,7 @@
         <v>1505</v>
       </c>
       <c r="C1617" s="20" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="D1617" s="3"/>
     </row>
@@ -50283,7 +50283,7 @@
         <v>1506</v>
       </c>
       <c r="C1618" s="20" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="D1618" s="3" t="s">
         <v>2125</v>
@@ -50297,7 +50297,7 @@
         <v>1506</v>
       </c>
       <c r="C1619" s="20" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="D1619" s="3"/>
     </row>
@@ -50309,7 +50309,7 @@
         <v>1506</v>
       </c>
       <c r="C1620" s="20" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="D1620" s="3"/>
     </row>
@@ -50321,7 +50321,7 @@
         <v>1506</v>
       </c>
       <c r="C1621" s="20" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="D1621" s="3"/>
     </row>
@@ -50333,7 +50333,7 @@
         <v>1506</v>
       </c>
       <c r="C1622" s="20" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="D1622" s="3"/>
     </row>
@@ -50345,7 +50345,7 @@
         <v>1507</v>
       </c>
       <c r="C1623" s="20" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="D1623" s="3" t="s">
         <v>2126</v>
@@ -50359,7 +50359,7 @@
         <v>1507</v>
       </c>
       <c r="C1624" s="20" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="D1624" s="3"/>
     </row>
@@ -50371,7 +50371,7 @@
         <v>1507</v>
       </c>
       <c r="C1625" s="20" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="D1625" s="3"/>
     </row>
@@ -50383,7 +50383,7 @@
         <v>1507</v>
       </c>
       <c r="C1626" s="20" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="D1626" s="3"/>
     </row>
@@ -50407,7 +50407,7 @@
         <v>1508</v>
       </c>
       <c r="C1628" s="20" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="D1628" s="3" t="s">
         <v>2126</v>
@@ -50421,7 +50421,7 @@
         <v>1508</v>
       </c>
       <c r="C1629" s="20" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="D1629" s="3"/>
     </row>
@@ -50433,7 +50433,7 @@
         <v>1508</v>
       </c>
       <c r="C1630" s="20" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="D1630" s="3"/>
     </row>
@@ -50445,7 +50445,7 @@
         <v>1508</v>
       </c>
       <c r="C1631" s="20" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="D1631" s="3"/>
     </row>
@@ -50483,7 +50483,7 @@
         <v>1511</v>
       </c>
       <c r="C1634" s="20" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="D1634" s="3"/>
     </row>
@@ -50495,7 +50495,7 @@
         <v>1511</v>
       </c>
       <c r="C1635" s="20" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="D1635" s="3"/>
     </row>
@@ -50507,7 +50507,7 @@
         <v>1511</v>
       </c>
       <c r="C1636" s="20" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="D1636" s="3"/>
     </row>
@@ -50519,7 +50519,7 @@
         <v>1511</v>
       </c>
       <c r="C1637" s="20" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="D1637" s="3"/>
     </row>
@@ -50531,7 +50531,7 @@
         <v>1511</v>
       </c>
       <c r="C1638" s="20" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="D1638" s="3"/>
     </row>
@@ -50543,7 +50543,7 @@
         <v>1511</v>
       </c>
       <c r="C1639" s="20" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="D1639" s="3"/>
     </row>
@@ -50555,7 +50555,7 @@
         <v>1512</v>
       </c>
       <c r="C1640" s="20" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="D1640" s="3" t="s">
         <v>2128</v>
@@ -50569,7 +50569,7 @@
         <v>1512</v>
       </c>
       <c r="C1641" s="20" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="D1641" s="3"/>
     </row>
@@ -50581,7 +50581,7 @@
         <v>1512</v>
       </c>
       <c r="C1642" s="20" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="D1642" s="3"/>
     </row>
@@ -50593,7 +50593,7 @@
         <v>1512</v>
       </c>
       <c r="C1643" s="20" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="D1643" s="3"/>
     </row>
@@ -50605,7 +50605,7 @@
         <v>1512</v>
       </c>
       <c r="C1644" s="20" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="D1644" s="3"/>
     </row>
@@ -50617,7 +50617,7 @@
         <v>1512</v>
       </c>
       <c r="C1645" s="20" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="D1645" s="3"/>
     </row>
@@ -50629,7 +50629,7 @@
         <v>1512</v>
       </c>
       <c r="C1646" s="20" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="D1646" s="3"/>
     </row>
@@ -50655,7 +50655,7 @@
         <v>1513</v>
       </c>
       <c r="C1648" s="20" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="D1648" s="3"/>
     </row>
@@ -50667,7 +50667,7 @@
         <v>1513</v>
       </c>
       <c r="C1649" s="20" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="D1649" s="3"/>
     </row>
@@ -50679,7 +50679,7 @@
         <v>1513</v>
       </c>
       <c r="C1650" s="20" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="D1650" s="3"/>
     </row>
@@ -50691,7 +50691,7 @@
         <v>1513</v>
       </c>
       <c r="C1651" s="20" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="D1651" s="3"/>
     </row>
@@ -50703,7 +50703,7 @@
         <v>1513</v>
       </c>
       <c r="C1652" s="20" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="D1652" s="3"/>
     </row>
@@ -50715,7 +50715,7 @@
         <v>1513</v>
       </c>
       <c r="C1653" s="20" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="D1653" s="3"/>
     </row>
@@ -50843,7 +50843,7 @@
         <v>1539</v>
       </c>
       <c r="C1663" s="20" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="D1663" s="3"/>
     </row>
@@ -50855,7 +50855,7 @@
         <v>1539</v>
       </c>
       <c r="C1664" s="20" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="D1664" s="3"/>
     </row>
@@ -50893,7 +50893,7 @@
         <v>1540</v>
       </c>
       <c r="C1667" s="20" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="D1667" s="3"/>
     </row>
@@ -50905,7 +50905,7 @@
         <v>1540</v>
       </c>
       <c r="C1668" s="20" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="D1668" s="3"/>
     </row>
@@ -50943,7 +50943,7 @@
         <v>1541</v>
       </c>
       <c r="C1671" s="20" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="D1671" s="3"/>
     </row>
@@ -50955,7 +50955,7 @@
         <v>1541</v>
       </c>
       <c r="C1672" s="20" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="D1672" s="3"/>
     </row>
@@ -50993,7 +50993,7 @@
         <v>1542</v>
       </c>
       <c r="C1675" s="20" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="D1675" s="3"/>
     </row>
@@ -51005,7 +51005,7 @@
         <v>1542</v>
       </c>
       <c r="C1676" s="20" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="D1676" s="3"/>
     </row>
@@ -51017,7 +51017,7 @@
         <v>1543</v>
       </c>
       <c r="C1677" s="20" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="D1677" s="3" t="s">
         <v>2131</v>
@@ -51031,7 +51031,7 @@
         <v>1543</v>
       </c>
       <c r="C1678" s="20" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="D1678" s="3"/>
     </row>
@@ -51043,7 +51043,7 @@
         <v>1543</v>
       </c>
       <c r="C1679" s="20" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="D1679" s="3"/>
     </row>
@@ -51055,7 +51055,7 @@
         <v>1543</v>
       </c>
       <c r="C1680" s="20" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="D1680" s="3"/>
     </row>
@@ -51067,7 +51067,7 @@
         <v>1543</v>
       </c>
       <c r="C1681" s="20" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="D1681" s="3"/>
     </row>
@@ -51079,7 +51079,7 @@
         <v>1543</v>
       </c>
       <c r="C1682" s="20" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="D1682" s="3"/>
     </row>
@@ -51091,7 +51091,7 @@
         <v>1543</v>
       </c>
       <c r="C1683" s="20" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="D1683" s="3"/>
     </row>
@@ -51103,7 +51103,7 @@
         <v>1543</v>
       </c>
       <c r="C1684" s="20" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="D1684" s="3"/>
     </row>
@@ -51165,7 +51165,7 @@
         <v>1552</v>
       </c>
       <c r="C1689" s="20" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="D1689" s="3"/>
     </row>
@@ -51227,7 +51227,7 @@
         <v>1553</v>
       </c>
       <c r="C1694" s="20" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="D1694" s="3"/>
     </row>
@@ -51289,7 +51289,7 @@
         <v>1554</v>
       </c>
       <c r="C1699" s="20" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="D1699" s="3"/>
     </row>
@@ -51351,7 +51351,7 @@
         <v>1555</v>
       </c>
       <c r="C1704" s="20" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="D1704" s="3"/>
     </row>
@@ -51413,7 +51413,7 @@
         <v>1556</v>
       </c>
       <c r="C1709" s="20" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="D1709" s="3"/>
     </row>
@@ -51475,7 +51475,7 @@
         <v>1557</v>
       </c>
       <c r="C1714" s="20" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="D1714" s="3"/>
     </row>
@@ -51537,7 +51537,7 @@
         <v>1558</v>
       </c>
       <c r="C1719" s="20" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="D1719" s="3"/>
     </row>
@@ -51661,7 +51661,7 @@
         <v>1562</v>
       </c>
       <c r="C1729" s="20" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="D1729" s="3"/>
     </row>
@@ -51723,7 +51723,7 @@
         <v>1563</v>
       </c>
       <c r="C1734" s="20" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="D1734" s="3"/>
     </row>
@@ -51785,7 +51785,7 @@
         <v>1564</v>
       </c>
       <c r="C1739" s="20" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="D1739" s="3"/>
     </row>
@@ -51909,7 +51909,7 @@
         <v>1566</v>
       </c>
       <c r="C1749" s="20" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="D1749" s="3"/>
     </row>
@@ -51971,7 +51971,7 @@
         <v>1567</v>
       </c>
       <c r="C1754" s="20" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="D1754" s="3"/>
     </row>
@@ -51997,7 +51997,7 @@
         <v>1569</v>
       </c>
       <c r="C1756" s="20" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="D1756" s="3"/>
     </row>
@@ -52009,7 +52009,7 @@
         <v>1569</v>
       </c>
       <c r="C1757" s="20" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="D1757" s="3"/>
     </row>
@@ -52021,7 +52021,7 @@
         <v>1569</v>
       </c>
       <c r="C1758" s="20" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="D1758" s="3"/>
     </row>
@@ -52033,7 +52033,7 @@
         <v>1569</v>
       </c>
       <c r="C1759" s="20" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="D1759" s="3"/>
     </row>
@@ -52045,7 +52045,7 @@
         <v>1569</v>
       </c>
       <c r="C1760" s="20" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="D1760" s="3"/>
     </row>
@@ -52057,7 +52057,7 @@
         <v>1569</v>
       </c>
       <c r="C1761" s="20" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="D1761" s="3"/>
     </row>
@@ -52069,7 +52069,7 @@
         <v>1570</v>
       </c>
       <c r="C1762" s="20" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="D1762" s="3" t="s">
         <v>2128</v>
@@ -52083,7 +52083,7 @@
         <v>1570</v>
       </c>
       <c r="C1763" s="20" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="D1763" s="3"/>
     </row>
@@ -52095,7 +52095,7 @@
         <v>1570</v>
       </c>
       <c r="C1764" s="20" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="D1764" s="3"/>
     </row>
@@ -52107,7 +52107,7 @@
         <v>1570</v>
       </c>
       <c r="C1765" s="20" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="D1765" s="3"/>
     </row>
@@ -52119,7 +52119,7 @@
         <v>1570</v>
       </c>
       <c r="C1766" s="20" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="D1766" s="3"/>
     </row>
@@ -52131,7 +52131,7 @@
         <v>1570</v>
       </c>
       <c r="C1767" s="20" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="D1767" s="3"/>
     </row>
@@ -52143,7 +52143,7 @@
         <v>1570</v>
       </c>
       <c r="C1768" s="20" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="D1768" s="3"/>
     </row>
@@ -52169,7 +52169,7 @@
         <v>1571</v>
       </c>
       <c r="C1770" s="20" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="D1770" s="3"/>
     </row>
@@ -52181,7 +52181,7 @@
         <v>1571</v>
       </c>
       <c r="C1771" s="20" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="D1771" s="3"/>
     </row>
@@ -52193,7 +52193,7 @@
         <v>1571</v>
       </c>
       <c r="C1772" s="20" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="D1772" s="3"/>
     </row>
@@ -52205,7 +52205,7 @@
         <v>1571</v>
       </c>
       <c r="C1773" s="20" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="D1773" s="3"/>
     </row>
@@ -52217,7 +52217,7 @@
         <v>1571</v>
       </c>
       <c r="C1774" s="20" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="D1774" s="3"/>
     </row>
@@ -52229,7 +52229,7 @@
         <v>1571</v>
       </c>
       <c r="C1775" s="20" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="D1775" s="3"/>
     </row>
@@ -52255,7 +52255,7 @@
         <v>1572</v>
       </c>
       <c r="C1777" s="20" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="D1777" s="3"/>
     </row>
@@ -52267,7 +52267,7 @@
         <v>1572</v>
       </c>
       <c r="C1778" s="20" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="D1778" s="3"/>
     </row>
@@ -52279,7 +52279,7 @@
         <v>1572</v>
       </c>
       <c r="C1779" s="20" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="D1779" s="3"/>
     </row>
@@ -52291,7 +52291,7 @@
         <v>1572</v>
       </c>
       <c r="C1780" s="20" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="D1780" s="3"/>
     </row>
@@ -52317,7 +52317,7 @@
         <v>1573</v>
       </c>
       <c r="C1782" s="20" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="D1782" s="3"/>
     </row>
@@ -52329,7 +52329,7 @@
         <v>1573</v>
       </c>
       <c r="C1783" s="20" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="D1783" s="3"/>
     </row>
@@ -52341,7 +52341,7 @@
         <v>1573</v>
       </c>
       <c r="C1784" s="20" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="D1784" s="3"/>
     </row>
@@ -52353,7 +52353,7 @@
         <v>1573</v>
       </c>
       <c r="C1785" s="20" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="D1785" s="3"/>
     </row>
@@ -52379,7 +52379,7 @@
         <v>1574</v>
       </c>
       <c r="C1787" s="20" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="D1787" s="3"/>
     </row>
@@ -52391,7 +52391,7 @@
         <v>1574</v>
       </c>
       <c r="C1788" s="20" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="D1788" s="3"/>
     </row>
@@ -52403,7 +52403,7 @@
         <v>1574</v>
       </c>
       <c r="C1789" s="20" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="D1789" s="3"/>
     </row>
@@ -52415,7 +52415,7 @@
         <v>1574</v>
       </c>
       <c r="C1790" s="20" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="D1790" s="3"/>
     </row>
@@ -52441,7 +52441,7 @@
         <v>1575</v>
       </c>
       <c r="C1792" s="20" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="D1792" s="3"/>
     </row>
@@ -52453,7 +52453,7 @@
         <v>1575</v>
       </c>
       <c r="C1793" s="20" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="D1793" s="3"/>
     </row>
@@ -52465,7 +52465,7 @@
         <v>1575</v>
       </c>
       <c r="C1794" s="20" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="D1794" s="3"/>
     </row>
@@ -52477,7 +52477,7 @@
         <v>1575</v>
       </c>
       <c r="C1795" s="20" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="D1795" s="3"/>
     </row>
@@ -52503,7 +52503,7 @@
         <v>1576</v>
       </c>
       <c r="C1797" s="20" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="D1797" s="3"/>
     </row>
@@ -52515,7 +52515,7 @@
         <v>1576</v>
       </c>
       <c r="C1798" s="20" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="D1798" s="3"/>
     </row>
@@ -52527,7 +52527,7 @@
         <v>1576</v>
       </c>
       <c r="C1799" s="20" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="D1799" s="3"/>
     </row>
@@ -52539,7 +52539,7 @@
         <v>1576</v>
       </c>
       <c r="C1800" s="20" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="D1800" s="3"/>
     </row>
@@ -52565,7 +52565,7 @@
         <v>1577</v>
       </c>
       <c r="C1802" s="20" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="D1802" s="3"/>
     </row>
@@ -52577,7 +52577,7 @@
         <v>1577</v>
       </c>
       <c r="C1803" s="20" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="D1803" s="3"/>
     </row>
@@ -52603,7 +52603,7 @@
         <v>1578</v>
       </c>
       <c r="C1805" s="20" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="D1805" s="3"/>
     </row>
@@ -52615,7 +52615,7 @@
         <v>1578</v>
       </c>
       <c r="C1806" s="20" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="D1806" s="3"/>
     </row>
@@ -52797,7 +52797,7 @@
         <v>1580</v>
       </c>
       <c r="C1821" s="20" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="D1821" s="3"/>
     </row>
@@ -52821,7 +52821,7 @@
         <v>1607</v>
       </c>
       <c r="C1823" s="20" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="D1823" s="3" t="s">
         <v>2137</v>
@@ -52835,7 +52835,7 @@
         <v>1607</v>
       </c>
       <c r="C1824" s="20" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="D1824" s="3"/>
     </row>
@@ -52847,7 +52847,7 @@
         <v>1608</v>
       </c>
       <c r="C1825" s="20" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="D1825" s="3" t="s">
         <v>2137</v>
@@ -52861,7 +52861,7 @@
         <v>1608</v>
       </c>
       <c r="C1826" s="20" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="D1826" s="3"/>
     </row>
@@ -52873,7 +52873,7 @@
         <v>1609</v>
       </c>
       <c r="C1827" s="20" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="D1827" s="3" t="s">
         <v>2137</v>
@@ -52887,7 +52887,7 @@
         <v>1609</v>
       </c>
       <c r="C1828" s="20" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="D1828" s="3"/>
     </row>
@@ -52899,7 +52899,7 @@
         <v>1610</v>
       </c>
       <c r="C1829" s="20" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="D1829" s="3" t="s">
         <v>2137</v>
@@ -52913,7 +52913,7 @@
         <v>1610</v>
       </c>
       <c r="C1830" s="20" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="D1830" s="3"/>
     </row>
@@ -52925,7 +52925,7 @@
         <v>1611</v>
       </c>
       <c r="C1831" s="20" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="D1831" s="3" t="s">
         <v>2137</v>
@@ -52939,7 +52939,7 @@
         <v>1611</v>
       </c>
       <c r="C1832" s="20" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="D1832" s="3"/>
     </row>
@@ -52951,7 +52951,7 @@
         <v>1612</v>
       </c>
       <c r="C1833" s="20" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="D1833" s="3" t="s">
         <v>2137</v>
@@ -52965,7 +52965,7 @@
         <v>1612</v>
       </c>
       <c r="C1834" s="20" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="D1834" s="3"/>
     </row>
@@ -52977,7 +52977,7 @@
         <v>1613</v>
       </c>
       <c r="C1835" s="20" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="D1835" s="3" t="s">
         <v>2137</v>
@@ -52991,7 +52991,7 @@
         <v>1613</v>
       </c>
       <c r="C1836" s="20" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="D1836" s="3"/>
     </row>
@@ -53003,7 +53003,7 @@
         <v>1614</v>
       </c>
       <c r="C1837" s="20" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="D1837" s="3" t="s">
         <v>2137</v>
@@ -53017,7 +53017,7 @@
         <v>1614</v>
       </c>
       <c r="C1838" s="20" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="D1838" s="3"/>
     </row>
@@ -53029,7 +53029,7 @@
         <v>1615</v>
       </c>
       <c r="C1839" s="20" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="D1839" s="3" t="s">
         <v>2137</v>
@@ -53043,7 +53043,7 @@
         <v>1615</v>
       </c>
       <c r="C1840" s="20" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="D1840" s="3"/>
     </row>
@@ -53475,7 +53475,7 @@
         <v>2092</v>
       </c>
       <c r="C1874" s="20" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="D1874" s="3" t="s">
         <v>2139</v>
@@ -53539,7 +53539,7 @@
         <v>669</v>
       </c>
       <c r="C1879" s="20" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="D1879" s="3"/>
     </row>
@@ -53613,7 +53613,7 @@
         <v>670</v>
       </c>
       <c r="C1885" s="20" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="D1885" s="3"/>
     </row>
@@ -53687,7 +53687,7 @@
         <v>671</v>
       </c>
       <c r="C1891" s="20" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="D1891" s="3"/>
     </row>
@@ -53761,7 +53761,7 @@
         <v>672</v>
       </c>
       <c r="C1897" s="20" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="D1897" s="3"/>
     </row>
@@ -53835,7 +53835,7 @@
         <v>673</v>
       </c>
       <c r="C1903" s="20" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="D1903" s="3"/>
     </row>
@@ -53909,7 +53909,7 @@
         <v>674</v>
       </c>
       <c r="C1909" s="20" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="D1909" s="3"/>
     </row>
@@ -53983,7 +53983,7 @@
         <v>675</v>
       </c>
       <c r="C1915" s="20" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="D1915" s="3"/>
     </row>
@@ -54057,7 +54057,7 @@
         <v>676</v>
       </c>
       <c r="C1921" s="20" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="D1921" s="3"/>
     </row>
@@ -54131,7 +54131,7 @@
         <v>677</v>
       </c>
       <c r="C1927" s="20" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="D1927" s="3"/>
     </row>
@@ -54205,7 +54205,7 @@
         <v>678</v>
       </c>
       <c r="C1933" s="20" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="D1933" s="3"/>
     </row>
@@ -54589,7 +54589,7 @@
         <v>1128</v>
       </c>
       <c r="C1964" s="20" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="D1964" s="3"/>
     </row>
@@ -54601,7 +54601,7 @@
         <v>1128</v>
       </c>
       <c r="C1965" s="20" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="D1965" s="3"/>
     </row>
@@ -54613,7 +54613,7 @@
         <v>1128</v>
       </c>
       <c r="C1966" s="20" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="D1966" s="3"/>
     </row>
@@ -54625,7 +54625,7 @@
         <v>1128</v>
       </c>
       <c r="C1967" s="20" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="D1967" s="3"/>
     </row>
@@ -54651,7 +54651,7 @@
         <v>1129</v>
       </c>
       <c r="C1969" s="20" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="D1969" s="3"/>
     </row>
@@ -54663,7 +54663,7 @@
         <v>1129</v>
       </c>
       <c r="C1970" s="20" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="D1970" s="3"/>
     </row>
@@ -54675,7 +54675,7 @@
         <v>1129</v>
       </c>
       <c r="C1971" s="20" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="D1971" s="3"/>
     </row>
@@ -54687,7 +54687,7 @@
         <v>1129</v>
       </c>
       <c r="C1972" s="20" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="D1972" s="3"/>
     </row>
@@ -54713,7 +54713,7 @@
         <v>1130</v>
       </c>
       <c r="C1974" s="20" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="D1974" s="3"/>
     </row>
@@ -54725,7 +54725,7 @@
         <v>1130</v>
       </c>
       <c r="C1975" s="20" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="D1975" s="3"/>
     </row>
@@ -54737,7 +54737,7 @@
         <v>1130</v>
       </c>
       <c r="C1976" s="20" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="D1976" s="3"/>
     </row>
@@ -54749,7 +54749,7 @@
         <v>1130</v>
       </c>
       <c r="C1977" s="20" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="D1977" s="3"/>
     </row>
@@ -54758,10 +54758,10 @@
         <v>26</v>
       </c>
       <c r="B1978" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="C1978" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="1979" spans="1:4" x14ac:dyDescent="0.45">
@@ -54769,10 +54769,10 @@
         <v>26</v>
       </c>
       <c r="B1979" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="C1979" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="1980" spans="1:4" x14ac:dyDescent="0.45">
@@ -54780,10 +54780,10 @@
         <v>26</v>
       </c>
       <c r="B1980" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="C1980" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="1981" spans="1:4" x14ac:dyDescent="0.45">
@@ -54791,10 +54791,10 @@
         <v>26</v>
       </c>
       <c r="B1981" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="C1981" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="1982" spans="1:4" x14ac:dyDescent="0.45">
@@ -54802,10 +54802,10 @@
         <v>26</v>
       </c>
       <c r="B1982" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="C1982" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="1983" spans="1:4" x14ac:dyDescent="0.45">
@@ -54816,7 +54816,7 @@
         <v>95</v>
       </c>
       <c r="C1983" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="1984" spans="1:4" x14ac:dyDescent="0.45">
@@ -54827,7 +54827,7 @@
         <v>95</v>
       </c>
       <c r="C1984" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
     </row>
   </sheetData>
